--- a/BackTest/2019-10-25 BackTest FNB.xlsx
+++ b/BackTest/2019-10-25 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.500000000000002</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-28.57142857142859</v>
+      </c>
       <c r="L12" t="n">
         <v>13.72</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-28.57142857142859</v>
+      </c>
       <c r="L13" t="n">
         <v>13.69</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>13.66</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.090909090909062</v>
+      </c>
       <c r="L15" t="n">
         <v>13.66</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20.00000000000014</v>
+      </c>
       <c r="L16" t="n">
         <v>13.65</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50.00000000000011</v>
+      </c>
       <c r="L17" t="n">
         <v>13.63</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.9</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>13.57</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-50</v>
+      </c>
       <c r="L19" t="n">
         <v>13.53</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>13.51</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.299999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>13.49</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.299999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>13.49</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>-18.18181818181822</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>13.48</v>
@@ -1466,7 +1488,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.18181818181822</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>13.47</v>
@@ -1515,7 +1537,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.999999999999982</v>
+        <v>-25</v>
       </c>
       <c r="L25" t="n">
         <v>13.45000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>-15.7894736842105</v>
+        <v>-25</v>
       </c>
       <c r="L26" t="n">
         <v>13.43000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>-22.2222222222223</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>13.41000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-37.50000000000007</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>13.41000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>13.43000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.699999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>13.42000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.799999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>13.43000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.899999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>13.43000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>3.099999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>-28.57142857142867</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L34" t="n">
         <v>13.40000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>13.40000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.64705882352937</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L36" t="n">
         <v>13.39000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>-22.22222222222225</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L37" t="n">
         <v>13.37</v>
@@ -2166,7 +2188,7 @@
         <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>-17.64705882352946</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L38" t="n">
         <v>13.34</v>
@@ -2217,7 +2239,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.882352941176556</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L39" t="n">
         <v>13.31</v>
@@ -2268,7 +2290,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.49999999999994</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L40" t="n">
         <v>13.3</v>
@@ -2370,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>5.882352941176446</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L42" t="n">
         <v>13.3</v>
@@ -2421,7 +2443,7 @@
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L43" t="n">
         <v>13.3</v>
@@ -2472,7 +2494,7 @@
         <v>4.1</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>13.32</v>
@@ -2523,7 +2545,7 @@
         <v>4.1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L45" t="n">
         <v>13.32</v>
@@ -2574,7 +2596,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>5.882352941176446</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>13.34</v>
@@ -2625,7 +2647,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>5.882352941176446</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L47" t="n">
         <v>13.37</v>
@@ -2676,7 +2698,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>5.882352941176446</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L48" t="n">
         <v>13.41000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>5.882352941176446</v>
+        <v>60</v>
       </c>
       <c r="L49" t="n">
         <v>13.45000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>12.49999999999994</v>
+        <v>50</v>
       </c>
       <c r="L50" t="n">
         <v>13.48</v>
@@ -2829,7 +2851,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>6.666666666666635</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>13.5</v>
@@ -2880,7 +2902,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>6.666666666666635</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>13.5</v>
@@ -2931,7 +2953,7 @@
         <v>4.499999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>12.49999999999994</v>
+        <v>50</v>
       </c>
       <c r="L53" t="n">
         <v>13.52</v>
@@ -2982,7 +3004,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>20.00000000000005</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>13.53</v>
@@ -3033,7 +3055,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571425</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>13.55</v>
@@ -3084,7 +3106,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>23.07692307692301</v>
+        <v>20</v>
       </c>
       <c r="L56" t="n">
         <v>13.56</v>
@@ -3135,7 +3157,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>13.56</v>
@@ -3186,7 +3208,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692318</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>13.55</v>
@@ -3237,7 +3259,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>16.66666666666679</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>13.53</v>
@@ -3288,7 +3310,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K60" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>13.53</v>
@@ -3339,7 +3361,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K61" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>13.53</v>
@@ -3390,7 +3412,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>13.54</v>
@@ -3441,7 +3463,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>13.53</v>
@@ -3492,7 +3514,7 @@
         <v>5.299999999999995</v>
       </c>
       <c r="K64" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>13.54</v>
@@ -3543,7 +3565,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K65" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>13.53</v>
@@ -3594,7 +3616,7 @@
         <v>5.499999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>13.51</v>
@@ -3645,7 +3667,7 @@
         <v>5.499999999999995</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>13.5</v>
@@ -3696,7 +3718,7 @@
         <v>5.599999999999994</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>13.51</v>
@@ -3747,7 +3769,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.3333333333334</v>
+        <v>-60.00000000000008</v>
       </c>
       <c r="L69" t="n">
         <v>13.47</v>
@@ -3798,7 +3820,7 @@
         <v>6.199999999999994</v>
       </c>
       <c r="K70" t="n">
-        <v>-36.84210526315795</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L70" t="n">
         <v>13.4</v>
@@ -3849,7 +3871,7 @@
         <v>6.399999999999993</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.80952380952387</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L71" t="n">
         <v>13.35</v>
@@ -3900,7 +3922,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K72" t="n">
-        <v>-23.80952380952387</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L72" t="n">
         <v>13.29</v>
@@ -3951,7 +3973,7 @@
         <v>6.899999999999993</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.33333333333332</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L73" t="n">
         <v>13.28</v>
@@ -4002,7 +4024,7 @@
         <v>7.199999999999994</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.38461538461542</v>
+        <v>-22.22222222222225</v>
       </c>
       <c r="L74" t="n">
         <v>13.23</v>
@@ -4053,7 +4075,7 @@
         <v>7.199999999999994</v>
       </c>
       <c r="K75" t="n">
-        <v>-20.00000000000003</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L75" t="n">
         <v>13.19</v>
@@ -4104,7 +4126,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K76" t="n">
-        <v>-11.11111111111108</v>
+        <v>-5.263157894736822</v>
       </c>
       <c r="L76" t="n">
         <v>13.18</v>
@@ -4155,7 +4177,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-11.11111111111114</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L77" t="n">
         <v>13.16</v>
@@ -4206,7 +4228,7 @@
         <v>7.599999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>-3.703703703703689</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>13.14</v>
@@ -4257,7 +4279,7 @@
         <v>7.699999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.142857142857174</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L79" t="n">
         <v>13.16</v>
@@ -4308,7 +4330,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.11111111111105</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>13.2</v>
@@ -4359,7 +4381,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.11111111111105</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L81" t="n">
         <v>13.22</v>
@@ -4410,7 +4432,7 @@
         <v>8.1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L82" t="n">
         <v>13.28</v>
@@ -4461,7 +4483,7 @@
         <v>8.299999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.225806451612888</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L83" t="n">
         <v>13.28</v>
@@ -4512,7 +4534,7 @@
         <v>8.299999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-6.666666666666635</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L84" t="n">
         <v>13.31000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>8.299999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.448275862068949</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L85" t="n">
         <v>13.34000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>3.448275862068949</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>13.36</v>
@@ -4665,7 +4687,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L87" t="n">
         <v>13.38000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>8.599999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L88" t="n">
         <v>13.40000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>8.699999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>23.07692307692303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>13.44000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>8.699999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>27.99999999999993</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>13.47</v>
@@ -4869,7 +4891,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K91" t="n">
-        <v>16.66666666666665</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>13.49</v>
@@ -4920,7 +4942,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>21.73913043478257</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>13.48</v>
@@ -5022,7 +5044,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>11.11111111111116</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>13.47</v>
@@ -5073,7 +5095,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111116</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>13.46</v>
@@ -5124,7 +5146,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L96" t="n">
         <v>13.44000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>6.666666666666761</v>
+        <v>-50</v>
       </c>
       <c r="L97" t="n">
         <v>13.43000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L98" t="n">
         <v>13.41000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>7.692307692307819</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>13.38000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>9.099999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.692307692307819</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>13.34000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>9.099999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>-7.692307692307819</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>13.31000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>13.30000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L103" t="n">
         <v>13.30000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090909062</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L104" t="n">
         <v>13.32000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>9.499999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L105" t="n">
         <v>13.33000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>9.499999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-9.090909090909062</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L106" t="n">
         <v>13.34000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>-16.66666666666674</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L107" t="n">
         <v>13.33</v>
@@ -5736,7 +5758,7 @@
         <v>9.9</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.69230769230765</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L108" t="n">
         <v>13.34</v>
@@ -5787,7 +5809,7 @@
         <v>9.9</v>
       </c>
       <c r="K109" t="n">
-        <v>-16.66666666666657</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L109" t="n">
         <v>13.35</v>
@@ -5838,7 +5860,7 @@
         <v>10</v>
       </c>
       <c r="K110" t="n">
-        <v>-23.07692307692295</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L110" t="n">
         <v>13.36</v>
@@ -5889,7 +5911,7 @@
         <v>10</v>
       </c>
       <c r="K111" t="n">
-        <v>-16.66666666666657</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L111" t="n">
         <v>13.37000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>10</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.66666666666657</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L112" t="n">
         <v>13.36000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="K113" t="n">
-        <v>-9.090909090909033</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L113" t="n">
         <v>13.35000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>10.1</v>
       </c>
       <c r="K114" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>13.34000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>10.2</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L115" t="n">
         <v>13.33000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>10.3</v>
       </c>
       <c r="K116" t="n">
-        <v>7.69230769230765</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L116" t="n">
         <v>13.33000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>10.4</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571421</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>13.36000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>10.5</v>
       </c>
       <c r="K118" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>13.36000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>10.5</v>
       </c>
       <c r="K119" t="n">
-        <v>6.666666666666635</v>
+        <v>20</v>
       </c>
       <c r="L119" t="n">
         <v>13.36000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>10.6</v>
       </c>
       <c r="K120" t="n">
-        <v>20.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>13.38000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>10.6</v>
       </c>
       <c r="K121" t="n">
-        <v>20.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>13.40000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>10.8</v>
       </c>
       <c r="K122" t="n">
-        <v>-6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>13.40000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>10.8</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.666666666666651</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>13.40000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>10.9</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.666666666666651</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>13.40000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>10.9</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>13.41000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>11</v>
       </c>
       <c r="K127" t="n">
-        <v>7.692307692307819</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>13.39000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>11.2</v>
       </c>
       <c r="K128" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>13.40000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>11.4</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L129" t="n">
         <v>13.39000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>11.4</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L130" t="n">
         <v>13.37000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>11.4</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>13.35000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>11.4</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>13.34000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>11.5</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L135" t="n">
         <v>13.32000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>11.6</v>
       </c>
       <c r="K136" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>13.31000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>11.6</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.66666666666662</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L137" t="n">
         <v>13.31000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>11.7</v>
       </c>
       <c r="K138" t="n">
-        <v>-16.66666666666674</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>13.28000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>11.7</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.66666666666674</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>13.27000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>11.8</v>
       </c>
       <c r="K140" t="n">
-        <v>-16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>13.27000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>11.9</v>
       </c>
       <c r="K141" t="n">
-        <v>-23.07692307692306</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>13.26000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>12.1</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.692307692307756</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>13.25</v>
@@ -7572,7 +7594,7 @@
         <v>12.1</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666664</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>13.24</v>
@@ -7623,7 +7645,7 @@
         <v>12.1</v>
       </c>
       <c r="K145" t="n">
-        <v>-16.66666666666664</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>13.24</v>
@@ -7674,7 +7696,7 @@
         <v>12.1</v>
       </c>
       <c r="K146" t="n">
-        <v>-16.66666666666664</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>13.23</v>
@@ -7725,7 +7747,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L147" t="n">
         <v>13.23</v>
@@ -7776,7 +7798,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>-27.27272727272704</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>13.23</v>
@@ -7827,7 +7849,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L149" t="n">
         <v>13.23</v>
@@ -7878,7 +7900,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>13.22</v>
@@ -7980,7 +8002,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>13.23</v>
@@ -8031,7 +8053,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>13.24</v>
@@ -8082,7 +8104,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>13.25</v>
@@ -8133,7 +8155,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>13.26000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L156" t="n">
         <v>13.28000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111093</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>13.29000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>24.99999999999983</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>13.31000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>33.33333333333307</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>13.34000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>13.38000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>49.99999999999967</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>13.41000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>13.45000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
         <v>13.49</v>
@@ -8592,7 +8614,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>13.53</v>
@@ -8643,7 +8665,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L165" t="n">
         <v>13.57</v>
@@ -8694,7 +8716,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L166" t="n">
         <v>13.6</v>
@@ -8745,7 +8767,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L167" t="n">
         <v>13.64</v>
@@ -8847,7 +8869,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>71.42857142857115</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L169" t="n">
         <v>13.7</v>
@@ -8898,7 +8920,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>33.33333333333333</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L170" t="n">
         <v>13.69</v>
@@ -8949,7 +8971,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111107</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L171" t="n">
         <v>13.67</v>
@@ -9000,7 +9022,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>19.99999999999993</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L172" t="n">
         <v>13.65</v>
@@ -9051,7 +9073,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>19.99999999999993</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L173" t="n">
         <v>13.63</v>
@@ -9102,7 +9124,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>9.090909090909062</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L174" t="n">
         <v>13.6</v>
@@ -9153,7 +9175,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>9.090909090909062</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L175" t="n">
         <v>13.57</v>
@@ -9204,7 +9226,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L176" t="n">
         <v>13.54000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L177" t="n">
         <v>13.50000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.090909090909062</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L178" t="n">
         <v>13.45000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.090909090909062</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
         <v>13.43000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>13.44000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909062</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>13.45000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>-16.66666666666662</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
         <v>13.45000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-16.66666666666662</v>
+        <v>20</v>
       </c>
       <c r="L184" t="n">
         <v>13.46</v>
@@ -9663,7 +9685,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-7.692307692307672</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>13.48</v>
@@ -9714,7 +9736,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.692307692307672</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>13.5</v>
@@ -9765,7 +9787,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-16.66666666666679</v>
+        <v>60</v>
       </c>
       <c r="L187" t="n">
         <v>13.52</v>
@@ -9816,7 +9838,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-16.66666666666679</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>13.55</v>
@@ -9867,7 +9889,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>13.56</v>
@@ -9969,7 +9991,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>13.56</v>
@@ -10020,7 +10042,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>13.56</v>
@@ -10071,7 +10093,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>13.57</v>
@@ -10122,7 +10144,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>13.57</v>
@@ -10173,7 +10195,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>13.56</v>
@@ -10224,7 +10246,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>13.56</v>
@@ -10275,7 +10297,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>13.56</v>
@@ -10326,7 +10348,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>13.56</v>
@@ -10377,7 +10399,7 @@
         <v>14.6</v>
       </c>
       <c r="K199" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L199" t="n">
         <v>13.57</v>
@@ -10428,7 +10450,7 @@
         <v>14.6</v>
       </c>
       <c r="K200" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>13.59</v>
@@ -10479,7 +10501,7 @@
         <v>14.6</v>
       </c>
       <c r="K201" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>13.61</v>
@@ -10530,7 +10552,7 @@
         <v>14.6</v>
       </c>
       <c r="K202" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>13.62</v>
@@ -10581,7 +10603,7 @@
         <v>14.6</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>13.63</v>
@@ -10632,7 +10654,7 @@
         <v>14.6</v>
       </c>
       <c r="K204" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>13.65</v>
@@ -10683,7 +10705,7 @@
         <v>14.6</v>
       </c>
       <c r="K205" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>13.66999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>14.8</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>13.65999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>14.8</v>
       </c>
       <c r="K208" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L208" t="n">
         <v>13.65</v>
@@ -10887,7 +10909,7 @@
         <v>14.8</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L209" t="n">
         <v>13.63</v>
@@ -10938,7 +10960,7 @@
         <v>14.8</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L210" t="n">
         <v>13.61</v>
@@ -10989,7 +11011,7 @@
         <v>14.8</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L211" t="n">
         <v>13.59</v>
@@ -11040,7 +11062,7 @@
         <v>14.8</v>
       </c>
       <c r="K212" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L212" t="n">
         <v>13.57</v>
@@ -11091,7 +11113,7 @@
         <v>14.9</v>
       </c>
       <c r="K213" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>13.54</v>
@@ -11142,7 +11164,7 @@
         <v>15.1</v>
       </c>
       <c r="K214" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L214" t="n">
         <v>13.53</v>
@@ -11193,7 +11215,7 @@
         <v>15.1</v>
       </c>
       <c r="K215" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>13.52</v>
@@ -11244,7 +11266,7 @@
         <v>15.2</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>13.51</v>
@@ -11295,7 +11317,7 @@
         <v>15.3</v>
       </c>
       <c r="K217" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>13.5</v>
@@ -11346,7 +11368,7 @@
         <v>15.5</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>13.51</v>
@@ -11397,7 +11419,7 @@
         <v>15.6</v>
       </c>
       <c r="K219" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>13.51</v>
@@ -11448,7 +11470,7 @@
         <v>15.7</v>
       </c>
       <c r="K220" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L220" t="n">
         <v>13.5</v>
@@ -11499,7 +11521,7 @@
         <v>15.8</v>
       </c>
       <c r="K221" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>13.5</v>
@@ -11550,7 +11572,7 @@
         <v>15.9</v>
       </c>
       <c r="K222" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>13.49</v>
@@ -11601,7 +11623,7 @@
         <v>15.9</v>
       </c>
       <c r="K223" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L223" t="n">
         <v>13.49</v>
@@ -11652,7 +11674,7 @@
         <v>15.9</v>
       </c>
       <c r="K224" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L224" t="n">
         <v>13.47</v>
@@ -11703,7 +11725,7 @@
         <v>16</v>
       </c>
       <c r="K225" t="n">
-        <v>-28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L225" t="n">
         <v>13.44000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>-23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L226" t="n">
         <v>13.42000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>16</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L227" t="n">
         <v>13.41000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>16.1</v>
       </c>
       <c r="K228" t="n">
-        <v>-7.692307692307682</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L228" t="n">
         <v>13.39000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>16.2</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571425</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L229" t="n">
         <v>13.37000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>16.3</v>
       </c>
       <c r="K230" t="n">
-        <v>-20.00000000000005</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L230" t="n">
         <v>13.35000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>-25</v>
+        <v>-59.9999999999995</v>
       </c>
       <c r="L231" t="n">
         <v>13.31000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-11.11111111111104</v>
+        <v>-14.28571428571407</v>
       </c>
       <c r="L232" t="n">
         <v>13.30000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>-19.99999999999996</v>
+        <v>-39.99999999999968</v>
       </c>
       <c r="L233" t="n">
         <v>13.26000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-26.31578947368416</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L234" t="n">
         <v>13.23000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>-14.28571428571419</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>13.23000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>-18.18181818181812</v>
+        <v>-14.28571428571423</v>
       </c>
       <c r="L236" t="n">
         <v>13.21</v>
@@ -12315,7 +12337,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.28571428571425</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L237" t="n">
         <v>13.19</v>
@@ -12366,7 +12388,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>-26.31578947368406</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L238" t="n">
         <v>13.16</v>
@@ -12417,7 +12439,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>-22.2222222222221</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L239" t="n">
         <v>13.14</v>
@@ -12468,7 +12490,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>-11.11111111111109</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L240" t="n">
         <v>13.14</v>
@@ -12519,7 +12541,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>-17.64705882352931</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L241" t="n">
         <v>13.15</v>
@@ -12570,7 +12592,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L242" t="n">
         <v>13.14</v>
@@ -12621,7 +12643,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-17.6470588235293</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>13.15</v>
@@ -12672,7 +12694,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-11.11111111111107</v>
+        <v>-20</v>
       </c>
       <c r="L244" t="n">
         <v>13.16</v>
@@ -12723,7 +12745,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.882352941176496</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L245" t="n">
         <v>13.15</v>
@@ -12774,7 +12796,7 @@
         <v>17.80000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>-11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>13.15</v>
@@ -12825,7 +12847,7 @@
         <v>17.80000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>13.15</v>
@@ -12876,7 +12898,7 @@
         <v>17.90000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-11.11111111111106</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L248" t="n">
         <v>13.15999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>17.90000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-5.882352941176496</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>13.16999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-5.882352941176391</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L250" t="n">
         <v>13.15999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>5.882352941176391</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>13.15999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>-6.666666666666698</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L252" t="n">
         <v>13.15999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>16.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>13.16999999999999</v>
@@ -13182,7 +13204,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K254" t="n">
-        <v>23.0769230769228</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L254" t="n">
         <v>13.18999999999999</v>
@@ -13233,7 +13255,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K255" t="n">
-        <v>9.090909090908928</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L255" t="n">
         <v>13.21</v>
@@ -13284,7 +13306,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K256" t="n">
-        <v>33.33333333333294</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L256" t="n">
         <v>13.24</v>
@@ -13335,7 +13357,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K257" t="n">
-        <v>19.99999999999982</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>13.26</v>
@@ -13386,7 +13408,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K258" t="n">
-        <v>19.99999999999982</v>
+        <v>20</v>
       </c>
       <c r="L258" t="n">
         <v>13.27</v>
@@ -13437,7 +13459,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K259" t="n">
-        <v>19.99999999999982</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L259" t="n">
         <v>13.28</v>
@@ -13539,7 +13561,7 @@
         <v>18.70000000000003</v>
       </c>
       <c r="K261" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L261" t="n">
         <v>13.31000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>18.70000000000003</v>
       </c>
       <c r="K262" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L262" t="n">
         <v>13.33000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>18.70000000000003</v>
       </c>
       <c r="K263" t="n">
-        <v>27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>13.35000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K264" t="n">
-        <v>9.090909090909092</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L264" t="n">
         <v>13.34000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K265" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>13.34000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K266" t="n">
-        <v>27.27272727272695</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L266" t="n">
         <v>13.34000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K267" t="n">
-        <v>27.27272727272695</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L267" t="n">
         <v>13.35000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>19.00000000000004</v>
       </c>
       <c r="K268" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>13.35000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>19.10000000000004</v>
       </c>
       <c r="K269" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L269" t="n">
         <v>13.36000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K270" t="n">
-        <v>33.33333333333289</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L270" t="n">
         <v>13.39000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K271" t="n">
-        <v>27.27272727272695</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L271" t="n">
         <v>13.40000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K272" t="n">
-        <v>27.27272727272695</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L272" t="n">
         <v>13.41000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>19.30000000000004</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333289</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L273" t="n">
         <v>13.43000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>19.70000000000004</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571411</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L275" t="n">
         <v>13.46</v>
@@ -14304,7 +14326,7 @@
         <v>19.70000000000004</v>
       </c>
       <c r="K276" t="n">
-        <v>14.28571428571411</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L276" t="n">
         <v>13.48</v>
@@ -14355,7 +14377,7 @@
         <v>19.70000000000004</v>
       </c>
       <c r="K277" t="n">
-        <v>23.07692307692279</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L277" t="n">
         <v>13.5</v>
@@ -14406,7 +14428,7 @@
         <v>19.70000000000004</v>
       </c>
       <c r="K278" t="n">
-        <v>23.07692307692279</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L278" t="n">
         <v>13.53</v>
@@ -14457,7 +14479,7 @@
         <v>19.70000000000004</v>
       </c>
       <c r="K279" t="n">
-        <v>23.07692307692279</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L279" t="n">
         <v>13.55</v>
@@ -14508,7 +14530,7 @@
         <v>19.80000000000004</v>
       </c>
       <c r="K280" t="n">
-        <v>23.07692307692293</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>13.55</v>
@@ -14559,7 +14581,7 @@
         <v>19.90000000000004</v>
       </c>
       <c r="K281" t="n">
-        <v>16.66666666666647</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L281" t="n">
         <v>13.56</v>
@@ -14610,7 +14632,7 @@
         <v>19.90000000000004</v>
       </c>
       <c r="K282" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>13.57</v>
@@ -14661,7 +14683,7 @@
         <v>19.90000000000004</v>
       </c>
       <c r="K283" t="n">
-        <v>16.66666666666647</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L283" t="n">
         <v>13.57</v>
@@ -14712,7 +14734,7 @@
         <v>19.90000000000004</v>
       </c>
       <c r="K284" t="n">
-        <v>27.27272727272696</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>13.59</v>
@@ -14763,7 +14785,7 @@
         <v>19.90000000000004</v>
       </c>
       <c r="K285" t="n">
-        <v>19.99999999999979</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>13.59</v>
@@ -14814,7 +14836,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K286" t="n">
-        <v>9.090909090908989</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L286" t="n">
         <v>13.58</v>
@@ -14865,7 +14887,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K287" t="n">
-        <v>9.090909090908989</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L287" t="n">
         <v>13.57</v>
@@ -14916,7 +14938,7 @@
         <v>20.10000000000004</v>
       </c>
       <c r="K288" t="n">
-        <v>9.090909090908989</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L288" t="n">
         <v>13.55</v>
@@ -14967,7 +14989,7 @@
         <v>20.10000000000004</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L289" t="n">
         <v>13.53</v>
@@ -15018,7 +15040,7 @@
         <v>20.20000000000005</v>
       </c>
       <c r="K290" t="n">
-        <v>-19.99999999999979</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L290" t="n">
         <v>13.51</v>
@@ -15069,7 +15091,7 @@
         <v>20.20000000000005</v>
       </c>
       <c r="K291" t="n">
-        <v>-19.99999999999979</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L291" t="n">
         <v>13.48</v>
@@ -15120,7 +15142,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K292" t="n">
-        <v>-9.090909090908989</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L292" t="n">
         <v>13.46</v>
@@ -15171,7 +15193,7 @@
         <v>20.40000000000005</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.090909090908989</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L293" t="n">
         <v>13.45000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>20.40000000000005</v>
       </c>
       <c r="K294" t="n">
-        <v>11.11111111111096</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L294" t="n">
         <v>13.44000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>20.50000000000005</v>
       </c>
       <c r="K295" t="n">
-        <v>-24.99999999999956</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L295" t="n">
         <v>13.42000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K297" t="n">
-        <v>-33.33333333333275</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L297" t="n">
         <v>13.38000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>20.70000000000005</v>
       </c>
       <c r="K298" t="n">
-        <v>-39.99999999999947</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L298" t="n">
         <v>13.36000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>20.80000000000005</v>
       </c>
       <c r="K299" t="n">
-        <v>-45.45454545454481</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L299" t="n">
         <v>13.33000000000001</v>
@@ -15528,7 +15550,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K300" t="n">
-        <v>-27.27272727272695</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L300" t="n">
         <v>13.32</v>
@@ -15579,7 +15601,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K301" t="n">
-        <v>-39.99999999999947</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L301" t="n">
         <v>13.31</v>
@@ -15630,7 +15652,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K302" t="n">
-        <v>-39.99999999999947</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L302" t="n">
         <v>13.29</v>
@@ -15681,7 +15703,7 @@
         <v>21.00000000000006</v>
       </c>
       <c r="K303" t="n">
-        <v>-27.27272727272679</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L303" t="n">
         <v>13.27</v>
@@ -15732,7 +15754,7 @@
         <v>21.10000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>-33.33333333333289</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L304" t="n">
         <v>13.24</v>
@@ -15783,7 +15805,7 @@
         <v>21.20000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>-23.07692307692267</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>13.23</v>
@@ -15834,7 +15856,7 @@
         <v>21.20000000000006</v>
       </c>
       <c r="K306" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>13.23</v>
@@ -15885,7 +15907,7 @@
         <v>21.30000000000006</v>
       </c>
       <c r="K307" t="n">
-        <v>-23.0769230769228</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>13.22</v>
@@ -15936,7 +15958,7 @@
         <v>21.70000000000006</v>
       </c>
       <c r="K308" t="n">
-        <v>-37.49999999999961</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>13.18</v>
@@ -15987,7 +16009,7 @@
         <v>22.00000000000006</v>
       </c>
       <c r="K309" t="n">
-        <v>-15.78947368421046</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L309" t="n">
         <v>13.18</v>
@@ -16038,7 +16060,7 @@
         <v>22.20000000000006</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L310" t="n">
         <v>13.19</v>
@@ -16089,7 +16111,7 @@
         <v>22.50000000000006</v>
       </c>
       <c r="K311" t="n">
-        <v>-13.04347826086951</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L311" t="n">
         <v>13.17000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>22.50000000000006</v>
       </c>
       <c r="K312" t="n">
-        <v>-18.18181818181808</v>
+        <v>-20</v>
       </c>
       <c r="L312" t="n">
         <v>13.15000000000001</v>
@@ -16191,7 +16213,7 @@
         <v>22.50000000000006</v>
       </c>
       <c r="K313" t="n">
-        <v>-23.80952380952367</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L313" t="n">
         <v>13.12</v>
@@ -16242,7 +16264,7 @@
         <v>22.60000000000006</v>
       </c>
       <c r="K314" t="n">
-        <v>-18.18181818181812</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L314" t="n">
         <v>13.11</v>
@@ -16293,7 +16315,7 @@
         <v>22.70000000000006</v>
       </c>
       <c r="K315" t="n">
-        <v>-18.18181818181812</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L315" t="n">
         <v>13.08</v>
@@ -16344,7 +16366,7 @@
         <v>22.80000000000006</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.090909090909099</v>
+        <v>-6.666666666666643</v>
       </c>
       <c r="L316" t="n">
         <v>13.06</v>
@@ -16395,7 +16417,7 @@
         <v>22.80000000000006</v>
       </c>
       <c r="K317" t="n">
-        <v>-9.090909090909099</v>
+        <v>27.27272727272714</v>
       </c>
       <c r="L317" t="n">
         <v>13.05</v>
@@ -16446,7 +16468,7 @@
         <v>22.90000000000006</v>
       </c>
       <c r="K318" t="n">
-        <v>-9.090909090909017</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L318" t="n">
         <v>13.07</v>
@@ -16497,7 +16519,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L319" t="n">
         <v>13.07</v>
@@ -16548,7 +16570,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K320" t="n">
-        <v>-4.761904761904725</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L320" t="n">
         <v>13.05</v>
@@ -16599,7 +16621,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K321" t="n">
-        <v>-4.761904761904725</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L321" t="n">
         <v>13.06</v>
@@ -16650,7 +16672,7 @@
         <v>23.10000000000007</v>
       </c>
       <c r="K322" t="n">
-        <v>-9.090909090909017</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>13.06</v>
@@ -16701,7 +16723,7 @@
         <v>23.10000000000007</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571426</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L323" t="n">
         <v>13.06</v>
@@ -16752,7 +16774,7 @@
         <v>23.10000000000007</v>
       </c>
       <c r="K324" t="n">
-        <v>-9.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>13.05</v>
@@ -16803,7 +16825,7 @@
         <v>23.20000000000007</v>
       </c>
       <c r="K325" t="n">
-        <v>-19.99999999999995</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L325" t="n">
         <v>13.04</v>
@@ -16854,7 +16876,7 @@
         <v>23.20000000000007</v>
       </c>
       <c r="K326" t="n">
-        <v>-19.99999999999995</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L326" t="n">
         <v>13.02</v>
@@ -16905,7 +16927,7 @@
         <v>23.40000000000007</v>
       </c>
       <c r="K327" t="n">
-        <v>-4.761904761904734</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L327" t="n">
         <v>13.02</v>
@@ -16956,7 +16978,7 @@
         <v>23.40000000000007</v>
       </c>
       <c r="K328" t="n">
-        <v>17.64705882352928</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>13.03</v>
@@ -17007,7 +17029,7 @@
         <v>23.50000000000006</v>
       </c>
       <c r="K329" t="n">
-        <v>-6.666666666666611</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L329" t="n">
         <v>13.02</v>
@@ -17058,7 +17080,7 @@
         <v>23.50000000000006</v>
       </c>
       <c r="K330" t="n">
-        <v>-23.07692307692306</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L330" t="n">
         <v>13.01</v>
@@ -17109,7 +17131,7 @@
         <v>23.60000000000007</v>
       </c>
       <c r="K331" t="n">
-        <v>-9.090909090909017</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L331" t="n">
         <v>12.99</v>
@@ -17262,7 +17284,7 @@
         <v>23.80000000000007</v>
       </c>
       <c r="K334" t="n">
-        <v>-16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>12.98</v>
@@ -17313,7 +17335,7 @@
         <v>23.80000000000007</v>
       </c>
       <c r="K335" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>12.98</v>
@@ -17364,7 +17386,7 @@
         <v>23.90000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>-9.090909090908989</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L336" t="n">
         <v>12.99</v>
@@ -17415,7 +17437,7 @@
         <v>24.00000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L337" t="n">
         <v>12.97</v>
@@ -17466,7 +17488,7 @@
         <v>24.10000000000007</v>
       </c>
       <c r="K338" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L338" t="n">
         <v>12.94000000000001</v>
@@ -17517,7 +17539,7 @@
         <v>24.30000000000008</v>
       </c>
       <c r="K339" t="n">
-        <v>-38.46153846153813</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L339" t="n">
         <v>12.90000000000001</v>
@@ -17568,7 +17590,7 @@
         <v>24.50000000000008</v>
       </c>
       <c r="K340" t="n">
-        <v>-19.99999999999974</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L340" t="n">
         <v>12.88000000000001</v>
@@ -17619,7 +17641,7 @@
         <v>24.60000000000008</v>
       </c>
       <c r="K341" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L341" t="n">
         <v>12.86</v>
@@ -17670,7 +17692,7 @@
         <v>24.70000000000008</v>
       </c>
       <c r="K342" t="n">
-        <v>-12.49999999999983</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L342" t="n">
         <v>12.84000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>24.80000000000008</v>
       </c>
       <c r="K343" t="n">
-        <v>-17.64705882352928</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L343" t="n">
         <v>12.81000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>24.90000000000008</v>
       </c>
       <c r="K344" t="n">
-        <v>-11.11111111111096</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L344" t="n">
         <v>12.80000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>25.10000000000009</v>
       </c>
       <c r="K345" t="n">
-        <v>-15.7894736842104</v>
+        <v>-33.33333333333289</v>
       </c>
       <c r="L345" t="n">
         <v>12.77</v>
@@ -17874,7 +17896,7 @@
         <v>25.10000000000009</v>
       </c>
       <c r="K346" t="n">
-        <v>-15.7894736842104</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L346" t="n">
         <v>12.73</v>
@@ -17925,7 +17947,7 @@
         <v>25.30000000000009</v>
       </c>
       <c r="K347" t="n">
-        <v>-36.84210526315747</v>
+        <v>-33.33333333333299</v>
       </c>
       <c r="L347" t="n">
         <v>12.68</v>
@@ -17976,7 +17998,7 @@
         <v>25.60000000000009</v>
       </c>
       <c r="K348" t="n">
-        <v>-18.18181818181803</v>
+        <v>7.692307692307598</v>
       </c>
       <c r="L348" t="n">
         <v>12.67</v>
@@ -18027,7 +18049,7 @@
         <v>25.60000000000009</v>
       </c>
       <c r="K349" t="n">
-        <v>-14.28571428571417</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L349" t="n">
         <v>12.68</v>
@@ -18078,7 +18100,7 @@
         <v>25.60000000000009</v>
       </c>
       <c r="K350" t="n">
-        <v>-14.28571428571417</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>12.67</v>
@@ -18129,7 +18151,7 @@
         <v>25.70000000000009</v>
       </c>
       <c r="K351" t="n">
-        <v>-14.28571428571417</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L351" t="n">
         <v>12.66</v>
@@ -18180,7 +18202,7 @@
         <v>25.70000000000009</v>
       </c>
       <c r="K352" t="n">
-        <v>-19.9999999999998</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L352" t="n">
         <v>12.64</v>
@@ -18231,7 +18253,7 @@
         <v>25.70000000000009</v>
       </c>
       <c r="K353" t="n">
-        <v>-19.9999999999998</v>
+        <v>-25</v>
       </c>
       <c r="L353" t="n">
         <v>12.63000000000001</v>
@@ -18282,7 +18304,7 @@
         <v>25.80000000000009</v>
       </c>
       <c r="K354" t="n">
-        <v>-9.999999999999947</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L354" t="n">
         <v>12.62000000000001</v>
@@ -18333,7 +18355,7 @@
         <v>25.80000000000009</v>
       </c>
       <c r="K355" t="n">
-        <v>-9.999999999999947</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L355" t="n">
         <v>12.63000000000001</v>
@@ -18384,7 +18406,7 @@
         <v>25.80000000000009</v>
       </c>
       <c r="K356" t="n">
-        <v>-15.7894736842104</v>
+        <v>59.99999999999937</v>
       </c>
       <c r="L356" t="n">
         <v>12.64000000000001</v>
@@ -18435,7 +18457,7 @@
         <v>25.80000000000009</v>
       </c>
       <c r="K357" t="n">
-        <v>-11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>12.67000000000001</v>
@@ -18486,7 +18508,7 @@
         <v>25.90000000000009</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>12.68000000000001</v>
@@ -18537,7 +18559,7 @@
         <v>25.90000000000009</v>
       </c>
       <c r="K359" t="n">
-        <v>12.49999999999994</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>12.69</v>
@@ -18588,7 +18610,7 @@
         <v>26.10000000000009</v>
       </c>
       <c r="K360" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>12.68000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>26.2000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L361" t="n">
         <v>12.69000000000001</v>
@@ -18690,7 +18712,7 @@
         <v>26.3000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L362" t="n">
         <v>12.71000000000001</v>
@@ -18741,7 +18763,7 @@
         <v>26.3000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>6.666666666666698</v>
+        <v>20</v>
       </c>
       <c r="L363" t="n">
         <v>12.73000000000001</v>
@@ -18792,7 +18814,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-12.49999999999994</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L364" t="n">
         <v>12.72000000000001</v>
@@ -18843,7 +18865,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L365" t="n">
         <v>12.71000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>6.666666666666579</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>12.71000000000001</v>
@@ -18945,7 +18967,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>23.07692307692273</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L367" t="n">
         <v>12.71000000000001</v>
@@ -18996,7 +19018,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L368" t="n">
         <v>12.70000000000001</v>
@@ -19047,7 +19069,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L369" t="n">
         <v>12.69000000000001</v>
@@ -19149,7 +19171,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>11.11111111111091</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>12.70000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>26.7000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L372" t="n">
         <v>12.68000000000001</v>
@@ -19302,7 +19324,7 @@
         <v>26.8000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L374" t="n">
         <v>12.67000000000001</v>
@@ -19404,7 +19426,7 @@
         <v>26.90000000000011</v>
       </c>
       <c r="K376" t="n">
-        <v>-9.090909090908928</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L376" t="n">
         <v>12.67000000000001</v>
@@ -19506,7 +19528,7 @@
         <v>27.10000000000011</v>
       </c>
       <c r="K378" t="n">
-        <v>-16.66666666666652</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L378" t="n">
         <v>12.66000000000001</v>
@@ -19557,7 +19579,7 @@
         <v>27.10000000000011</v>
       </c>
       <c r="K379" t="n">
-        <v>-16.66666666666652</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L379" t="n">
         <v>12.65000000000001</v>
@@ -19608,7 +19630,7 @@
         <v>27.20000000000011</v>
       </c>
       <c r="K380" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>12.65000000000001</v>
@@ -19659,7 +19681,7 @@
         <v>27.20000000000011</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L381" t="n">
         <v>12.65000000000001</v>
@@ -19710,7 +19732,7 @@
         <v>27.20000000000011</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.11111111111111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L382" t="n">
         <v>12.66000000000001</v>
@@ -19761,7 +19783,7 @@
         <v>27.30000000000011</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L383" t="n">
         <v>12.68000000000002</v>
@@ -19812,7 +19834,7 @@
         <v>27.40000000000011</v>
       </c>
       <c r="K384" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>12.68000000000001</v>
@@ -19863,7 +19885,7 @@
         <v>27.40000000000011</v>
       </c>
       <c r="K385" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L385" t="n">
         <v>12.68000000000001</v>
@@ -19965,7 +19987,7 @@
         <v>27.40000000000011</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L387" t="n">
         <v>12.69000000000001</v>
@@ -20016,7 +20038,7 @@
         <v>27.50000000000011</v>
       </c>
       <c r="K388" t="n">
-        <v>11.11111111111111</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L388" t="n">
         <v>12.71000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>27.70000000000012</v>
       </c>
       <c r="K390" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>12.73000000000001</v>
@@ -20220,7 +20242,7 @@
         <v>27.80000000000012</v>
       </c>
       <c r="K392" t="n">
-        <v>9.090909090908928</v>
+        <v>-20</v>
       </c>
       <c r="L392" t="n">
         <v>12.73000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>28.00000000000012</v>
       </c>
       <c r="K393" t="n">
-        <v>23.0769230769228</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L393" t="n">
         <v>12.74000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>28.30000000000013</v>
       </c>
       <c r="K395" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L395" t="n">
         <v>12.75000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>28.30000000000013</v>
       </c>
       <c r="K396" t="n">
-        <v>14.28571428571416</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L396" t="n">
         <v>12.76000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>28.30000000000013</v>
       </c>
       <c r="K397" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>12.77000000000001</v>
@@ -20526,7 +20548,7 @@
         <v>28.30000000000013</v>
       </c>
       <c r="K398" t="n">
-        <v>16.66666666666652</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L398" t="n">
         <v>12.77000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>28.40000000000013</v>
       </c>
       <c r="K399" t="n">
-        <v>23.0769230769228</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L399" t="n">
         <v>12.79000000000001</v>
@@ -20628,7 +20650,7 @@
         <v>28.40000000000013</v>
       </c>
       <c r="K400" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L400" t="n">
         <v>12.80000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>28.40000000000013</v>
       </c>
       <c r="K401" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L401" t="n">
         <v>12.82000000000001</v>
@@ -20730,7 +20752,7 @@
         <v>28.40000000000013</v>
       </c>
       <c r="K402" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>12.84000000000001</v>
@@ -20781,7 +20803,7 @@
         <v>28.40000000000013</v>
       </c>
       <c r="K403" t="n">
-        <v>9.090909090908928</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L403" t="n">
         <v>12.84000000000001</v>
@@ -20832,7 +20854,7 @@
         <v>28.50000000000013</v>
       </c>
       <c r="K404" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>12.85000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K405" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L405" t="n">
         <v>12.86000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K406" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L406" t="n">
         <v>12.87000000000001</v>
@@ -20985,7 +21007,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K407" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L407" t="n">
         <v>12.88000000000001</v>
@@ -21036,7 +21058,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K408" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>12.89000000000001</v>
@@ -21087,7 +21109,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K409" t="n">
-        <v>19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>12.89000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>28.60000000000013</v>
       </c>
       <c r="K410" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>12.89000000000001</v>
@@ -21189,7 +21211,7 @@
         <v>28.70000000000013</v>
       </c>
       <c r="K411" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L411" t="n">
         <v>12.88000000000001</v>
@@ -21240,7 +21262,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L412" t="n">
         <v>12.86000000000001</v>
@@ -21291,7 +21313,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K413" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>12.84000000000001</v>
@@ -21342,7 +21364,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L414" t="n">
         <v>12.83000000000001</v>
@@ -21393,7 +21415,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K415" t="n">
-        <v>-20</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L415" t="n">
         <v>12.81000000000001</v>
@@ -21444,7 +21466,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K416" t="n">
-        <v>-20</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L416" t="n">
         <v>12.79</v>
@@ -21495,7 +21517,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K417" t="n">
-        <v>-20</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L417" t="n">
         <v>12.77</v>
@@ -21546,7 +21568,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K418" t="n">
-        <v>-20</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L418" t="n">
         <v>12.75</v>
@@ -21597,7 +21619,7 @@
         <v>28.90000000000013</v>
       </c>
       <c r="K419" t="n">
-        <v>-19.99999999999964</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L419" t="n">
         <v>12.74</v>
@@ -21648,7 +21670,7 @@
         <v>28.90000000000013</v>
       </c>
       <c r="K420" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>12.73</v>
@@ -21699,7 +21721,7 @@
         <v>29.00000000000014</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L421" t="n">
         <v>12.74</v>
@@ -21750,7 +21772,7 @@
         <v>29.10000000000014</v>
       </c>
       <c r="K422" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>12.75</v>
@@ -21801,7 +21823,7 @@
         <v>29.10000000000014</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>12.76</v>
@@ -21852,7 +21874,7 @@
         <v>29.10000000000014</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>12.77</v>
@@ -21903,7 +21925,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L425" t="n">
         <v>12.79</v>
@@ -21954,7 +21976,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K426" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L426" t="n">
         <v>12.81</v>
@@ -22005,7 +22027,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L427" t="n">
         <v>12.83</v>
@@ -22056,7 +22078,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L428" t="n">
         <v>12.85</v>
@@ -22107,7 +22129,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L429" t="n">
         <v>12.86</v>
@@ -22209,7 +22231,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K431" t="n">
-        <v>19.99999999999964</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L431" t="n">
         <v>12.87</v>
@@ -22260,7 +22282,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K432" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L432" t="n">
         <v>12.88</v>
@@ -22311,7 +22333,7 @@
         <v>29.20000000000014</v>
       </c>
       <c r="K433" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L433" t="n">
         <v>12.89</v>
@@ -22362,7 +22384,7 @@
         <v>29.30000000000014</v>
       </c>
       <c r="K434" t="n">
-        <v>20</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L434" t="n">
         <v>12.89</v>
@@ -22413,7 +22435,7 @@
         <v>29.40000000000014</v>
       </c>
       <c r="K435" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>12.89</v>
@@ -22464,7 +22486,7 @@
         <v>29.50000000000014</v>
       </c>
       <c r="K436" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L436" t="n">
         <v>12.88</v>
@@ -22515,7 +22537,7 @@
         <v>29.50000000000014</v>
       </c>
       <c r="K437" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L437" t="n">
         <v>12.87</v>
@@ -22566,7 +22588,7 @@
         <v>29.60000000000014</v>
       </c>
       <c r="K438" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>12.87</v>
@@ -22621,7 +22643,7 @@
         <v>29.60000000000014</v>
       </c>
       <c r="K439" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>12.87</v>
@@ -22678,7 +22700,7 @@
         <v>29.70000000000014</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L440" t="n">
         <v>12.86</v>
@@ -22735,7 +22757,7 @@
         <v>29.80000000000015</v>
       </c>
       <c r="K441" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L441" t="n">
         <v>12.84</v>
@@ -22790,7 +22812,7 @@
         <v>29.80000000000015</v>
       </c>
       <c r="K442" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L442" t="n">
         <v>12.82</v>
@@ -22847,7 +22869,7 @@
         <v>29.80000000000015</v>
       </c>
       <c r="K443" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L443" t="n">
         <v>12.8</v>
@@ -22904,7 +22926,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K444" t="n">
-        <v>-24.99999999999978</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L444" t="n">
         <v>12.78</v>
@@ -22961,7 +22983,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K445" t="n">
-        <v>-42.85714285714235</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L445" t="n">
         <v>12.75</v>
@@ -23018,7 +23040,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K446" t="n">
-        <v>-42.85714285714235</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L446" t="n">
         <v>12.73</v>
@@ -23075,7 +23097,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K447" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L447" t="n">
         <v>12.71</v>
@@ -23132,7 +23154,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K448" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L448" t="n">
         <v>12.68</v>
@@ -23189,7 +23211,7 @@
         <v>29.90000000000015</v>
       </c>
       <c r="K449" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L449" t="n">
         <v>12.65</v>
@@ -23246,7 +23268,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K450" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>12.64</v>
@@ -23303,7 +23325,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K451" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>12.64</v>
@@ -23360,7 +23382,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K452" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>12.64</v>
@@ -23417,7 +23439,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K453" t="n">
-        <v>-24.99999999999978</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L453" t="n">
         <v>12.64</v>
@@ -23474,7 +23496,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K454" t="n">
-        <v>-14.28571428571428</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L454" t="n">
         <v>12.65</v>
@@ -23531,7 +23553,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K455" t="n">
-        <v>-33.33333333333304</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L455" t="n">
         <v>12.66</v>
@@ -23588,7 +23610,7 @@
         <v>30.00000000000015</v>
       </c>
       <c r="K456" t="n">
-        <v>-20</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L456" t="n">
         <v>12.67</v>
@@ -23645,7 +23667,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L457" t="n">
         <v>12.69</v>
@@ -23702,7 +23724,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K458" t="n">
-        <v>-19.99999999999964</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L458" t="n">
         <v>12.71</v>
@@ -23759,7 +23781,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K459" t="n">
-        <v>-19.99999999999964</v>
+        <v>100</v>
       </c>
       <c r="L459" t="n">
         <v>12.73</v>
@@ -23816,7 +23838,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L460" t="n">
         <v>12.74</v>
@@ -23867,7 +23889,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K461" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L461" t="n">
         <v>12.75</v>
@@ -23918,7 +23940,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K462" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L462" t="n">
         <v>12.76</v>
@@ -23969,7 +23991,7 @@
         <v>30.10000000000015</v>
       </c>
       <c r="K463" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L463" t="n">
         <v>12.77</v>
@@ -24020,7 +24042,7 @@
         <v>30.20000000000015</v>
       </c>
       <c r="K464" t="n">
-        <v>33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>12.77</v>
@@ -24071,7 +24093,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K465" t="n">
-        <v>49.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>12.78</v>
@@ -24122,7 +24144,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K466" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>12.79</v>
@@ -24173,7 +24195,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K467" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>12.79</v>
@@ -24224,7 +24246,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K468" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>12.79</v>
@@ -24275,7 +24297,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K469" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>12.79</v>
@@ -24326,7 +24348,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K470" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>12.79</v>
@@ -24377,7 +24399,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K471" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>12.79</v>
@@ -24428,7 +24450,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K472" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>12.79</v>
@@ -24530,7 +24552,7 @@
         <v>30.50000000000016</v>
       </c>
       <c r="K474" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>12.79</v>
@@ -24581,7 +24603,7 @@
         <v>30.50000000000016</v>
       </c>
       <c r="K475" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>12.79</v>
@@ -24632,7 +24654,7 @@
         <v>30.50000000000016</v>
       </c>
       <c r="K476" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>12.79</v>
@@ -24785,7 +24807,7 @@
         <v>30.60000000000016</v>
       </c>
       <c r="K479" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>12.78</v>
@@ -24938,7 +24960,7 @@
         <v>30.70000000000016</v>
       </c>
       <c r="K482" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>12.78</v>
@@ -25040,7 +25062,7 @@
         <v>30.80000000000016</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>12.78</v>
@@ -25244,7 +25266,7 @@
         <v>30.90000000000016</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>12.78</v>
@@ -25499,7 +25521,7 @@
         <v>30.90000000000016</v>
       </c>
       <c r="K493" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L493" t="n">
         <v>12.79</v>
@@ -25549,9 +25571,7 @@
       <c r="J494" t="n">
         <v>30.90000000000016</v>
       </c>
-      <c r="K494" t="n">
-        <v>0</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>12.8</v>
       </c>
@@ -25600,9 +25620,7 @@
       <c r="J495" t="n">
         <v>30.90000000000016</v>
       </c>
-      <c r="K495" t="n">
-        <v>0</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>12.8</v>
       </c>
@@ -25651,9 +25669,7 @@
       <c r="J496" t="n">
         <v>30.90000000000016</v>
       </c>
-      <c r="K496" t="n">
-        <v>0</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>12.8</v>
       </c>
@@ -25702,9 +25718,7 @@
       <c r="J497" t="n">
         <v>30.90000000000016</v>
       </c>
-      <c r="K497" t="n">
-        <v>0</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>12.8</v>
       </c>
@@ -25754,7 +25768,7 @@
         <v>31.00000000000016</v>
       </c>
       <c r="K498" t="n">
-        <v>19.99999999999964</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L498" t="n">
         <v>12.81</v>
@@ -25805,7 +25819,7 @@
         <v>31.10000000000016</v>
       </c>
       <c r="K499" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>12.81</v>
@@ -25856,7 +25870,7 @@
         <v>31.20000000000017</v>
       </c>
       <c r="K500" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L500" t="n">
         <v>12.82</v>
@@ -25958,7 +25972,7 @@
         <v>31.40000000000017</v>
       </c>
       <c r="K502" t="n">
-        <v>14.28571428571403</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L502" t="n">
         <v>12.82999999999999</v>
@@ -26060,7 +26074,7 @@
         <v>31.60000000000017</v>
       </c>
       <c r="K504" t="n">
-        <v>24.99999999999978</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L504" t="n">
         <v>12.83999999999999</v>
@@ -26213,7 +26227,7 @@
         <v>31.80000000000017</v>
       </c>
       <c r="K507" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>12.85999999999999</v>
@@ -26264,7 +26278,7 @@
         <v>31.80000000000017</v>
       </c>
       <c r="K508" t="n">
-        <v>11.11111111111091</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L508" t="n">
         <v>12.85999999999999</v>
@@ -26315,7 +26329,7 @@
         <v>31.80000000000017</v>
       </c>
       <c r="K509" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>12.86999999999999</v>
@@ -26366,7 +26380,7 @@
         <v>31.90000000000018</v>
       </c>
       <c r="K510" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L510" t="n">
         <v>12.87999999999999</v>
@@ -26417,7 +26431,7 @@
         <v>32.00000000000018</v>
       </c>
       <c r="K511" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>12.88999999999999</v>
@@ -26468,7 +26482,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K512" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L512" t="n">
         <v>12.89999999999999</v>
@@ -26519,7 +26533,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K513" t="n">
-        <v>16.66666666666637</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L513" t="n">
         <v>12.91999999999999</v>
@@ -26570,7 +26584,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K514" t="n">
-        <v>16.66666666666637</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L514" t="n">
         <v>12.92999999999999</v>
@@ -26621,7 +26635,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K515" t="n">
-        <v>16.66666666666637</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L515" t="n">
         <v>12.93999999999999</v>
@@ -26676,7 +26690,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K516" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L516" t="n">
         <v>12.95999999999999</v>
@@ -26733,7 +26747,7 @@
         <v>32.10000000000018</v>
       </c>
       <c r="K517" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L517" t="n">
         <v>12.96999999999999</v>
@@ -26790,7 +26804,7 @@
         <v>32.30000000000018</v>
       </c>
       <c r="K518" t="n">
-        <v>-7.692307692307556</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L518" t="n">
         <v>12.95999999999999</v>
@@ -26847,7 +26861,7 @@
         <v>32.50000000000018</v>
       </c>
       <c r="K519" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>12.96999999999999</v>
@@ -26902,7 +26916,7 @@
         <v>32.50000000000018</v>
       </c>
       <c r="K520" t="n">
-        <v>7.692307692307556</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L520" t="n">
         <v>12.96999999999999</v>
@@ -26959,7 +26973,7 @@
         <v>32.50000000000018</v>
       </c>
       <c r="K521" t="n">
-        <v>16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>12.97999999999999</v>
@@ -27016,7 +27030,7 @@
         <v>32.50000000000018</v>
       </c>
       <c r="K522" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>12.97999999999999</v>
@@ -27073,7 +27087,7 @@
         <v>32.70000000000019</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L523" t="n">
         <v>12.95999999999999</v>
@@ -27130,7 +27144,7 @@
         <v>32.80000000000019</v>
       </c>
       <c r="K524" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L524" t="n">
         <v>12.94999999999999</v>
@@ -27187,7 +27201,7 @@
         <v>32.80000000000019</v>
       </c>
       <c r="K525" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L525" t="n">
         <v>12.93999999999999</v>
@@ -27244,7 +27258,7 @@
         <v>32.80000000000019</v>
       </c>
       <c r="K526" t="n">
-        <v>9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L526" t="n">
         <v>12.92999999999999</v>
@@ -27301,7 +27315,7 @@
         <v>32.80000000000019</v>
       </c>
       <c r="K527" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L527" t="n">
         <v>12.91999999999999</v>
@@ -27358,7 +27372,7 @@
         <v>32.90000000000019</v>
       </c>
       <c r="K528" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>12.93999999999999</v>
@@ -27415,7 +27429,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L529" t="n">
         <v>12.92999999999999</v>
@@ -27472,7 +27486,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K530" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L530" t="n">
         <v>12.91999999999999</v>
@@ -27529,7 +27543,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L531" t="n">
         <v>12.90999999999999</v>
@@ -27586,7 +27600,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K532" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L532" t="n">
         <v>12.89999999999999</v>
@@ -27643,7 +27657,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K533" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>12.90999999999999</v>
@@ -27700,7 +27714,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K534" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>12.90999999999999</v>
@@ -27757,7 +27771,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K535" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L535" t="n">
         <v>12.90999999999999</v>
@@ -27814,7 +27828,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K536" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L536" t="n">
         <v>12.90999999999999</v>
@@ -27871,7 +27885,7 @@
         <v>33.00000000000019</v>
       </c>
       <c r="K537" t="n">
-        <v>-11.11111111111091</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L537" t="n">
         <v>12.90999999999999</v>
@@ -27927,9 +27941,7 @@
       <c r="J538" t="n">
         <v>33.00000000000019</v>
       </c>
-      <c r="K538" t="n">
-        <v>14.28571428571403</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>12.89999999999999</v>
       </c>
@@ -27979,7 +27991,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K539" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L539" t="n">
         <v>12.88999999999999</v>
@@ -28030,7 +28042,7 @@
         <v>33.20000000000019</v>
       </c>
       <c r="K540" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L540" t="n">
         <v>12.86999999999999</v>
@@ -28081,7 +28093,7 @@
         <v>33.3000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>-24.99999999999956</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L541" t="n">
         <v>12.85999999999999</v>
@@ -28132,7 +28144,7 @@
         <v>33.4000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L542" t="n">
         <v>12.85999999999999</v>
@@ -28183,7 +28195,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L543" t="n">
         <v>12.84999999999999</v>
@@ -28234,7 +28246,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>-14.28571428571403</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L544" t="n">
         <v>12.83999999999999</v>
@@ -28285,7 +28297,7 @@
         <v>33.6000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L545" t="n">
         <v>12.81999999999999</v>
@@ -28336,7 +28348,7 @@
         <v>33.7000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>-11.11111111111091</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L546" t="n">
         <v>12.80999999999999</v>
@@ -28387,7 +28399,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>-19.99999999999982</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L547" t="n">
         <v>12.78999999999999</v>
@@ -28438,7 +28450,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>-33.33333333333294</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L548" t="n">
         <v>12.76999999999999</v>
@@ -28489,7 +28501,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>12.75999999999999</v>
@@ -28540,7 +28552,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>-24.99999999999978</v>
+        <v>-20</v>
       </c>
       <c r="L550" t="n">
         <v>12.75999999999999</v>
@@ -28591,7 +28603,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>-11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L551" t="n">
         <v>12.75999999999999</v>
@@ -28642,7 +28654,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>12.74999999999999</v>
@@ -28693,7 +28705,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>12.74999999999999</v>
@@ -28744,7 +28756,7 @@
         <v>34.00000000000021</v>
       </c>
       <c r="K554" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>12.73999999999999</v>
@@ -28795,7 +28807,7 @@
         <v>34.00000000000021</v>
       </c>
       <c r="K555" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L555" t="n">
         <v>12.73999999999999</v>
@@ -28846,7 +28858,7 @@
         <v>34.10000000000021</v>
       </c>
       <c r="K556" t="n">
-        <v>-9.090909090908928</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L556" t="n">
         <v>12.73999999999999</v>
@@ -28897,7 +28909,7 @@
         <v>34.10000000000021</v>
       </c>
       <c r="K557" t="n">
-        <v>-9.090909090908928</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L557" t="n">
         <v>12.74999999999999</v>
@@ -28948,7 +28960,7 @@
         <v>34.10000000000021</v>
       </c>
       <c r="K558" t="n">
-        <v>-9.090909090908928</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L558" t="n">
         <v>12.75999999999999</v>
@@ -28999,7 +29011,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K559" t="n">
-        <v>9.090909090908928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L559" t="n">
         <v>12.77999999999999</v>
@@ -29050,7 +29062,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K560" t="n">
-        <v>19.99999999999982</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L560" t="n">
         <v>12.79999999999998</v>
@@ -29101,7 +29113,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K561" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L561" t="n">
         <v>12.80999999999998</v>
@@ -29152,7 +29164,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L562" t="n">
         <v>12.81999999999998</v>
@@ -29203,7 +29215,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K563" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L563" t="n">
         <v>12.82999999999998</v>
@@ -29254,7 +29266,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K564" t="n">
-        <v>24.99999999999956</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L564" t="n">
         <v>12.85999999999998</v>
@@ -29305,7 +29317,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K565" t="n">
-        <v>42.85714285714235</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L565" t="n">
         <v>12.88999999999998</v>
@@ -29356,7 +29368,7 @@
         <v>34.40000000000021</v>
       </c>
       <c r="K566" t="n">
-        <v>42.85714285714209</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L566" t="n">
         <v>12.91999999999998</v>
@@ -29407,7 +29419,7 @@
         <v>34.40000000000021</v>
       </c>
       <c r="K567" t="n">
-        <v>66.66666666666578</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L567" t="n">
         <v>12.94999999999998</v>
@@ -29458,7 +29470,7 @@
         <v>34.40000000000021</v>
       </c>
       <c r="K568" t="n">
-        <v>66.66666666666578</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L568" t="n">
         <v>12.97999999999998</v>
@@ -29509,7 +29521,7 @@
         <v>34.40000000000021</v>
       </c>
       <c r="K569" t="n">
-        <v>66.66666666666578</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L569" t="n">
         <v>12.99999999999998</v>
@@ -29560,7 +29572,7 @@
         <v>34.50000000000021</v>
       </c>
       <c r="K570" t="n">
-        <v>42.85714285714235</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L570" t="n">
         <v>13.00999999999998</v>
@@ -29611,7 +29623,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K571" t="n">
-        <v>42.85714285714209</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L571" t="n">
         <v>13.02999999999998</v>
@@ -29662,7 +29674,7 @@
         <v>34.70000000000022</v>
       </c>
       <c r="K572" t="n">
-        <v>24.99999999999956</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L572" t="n">
         <v>13.03999999999997</v>
@@ -29713,7 +29725,7 @@
         <v>34.70000000000022</v>
       </c>
       <c r="K573" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>13.04999999999997</v>
@@ -29764,7 +29776,7 @@
         <v>34.80000000000022</v>
       </c>
       <c r="K574" t="n">
-        <v>24.99999999999978</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L574" t="n">
         <v>13.03999999999997</v>
@@ -29815,7 +29827,7 @@
         <v>34.80000000000022</v>
       </c>
       <c r="K575" t="n">
-        <v>24.99999999999978</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L575" t="n">
         <v>13.02999999999998</v>
@@ -29866,7 +29878,7 @@
         <v>34.80000000000022</v>
       </c>
       <c r="K576" t="n">
-        <v>14.28571428571403</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L576" t="n">
         <v>13.00999999999998</v>
@@ -29917,7 +29929,7 @@
         <v>34.90000000000022</v>
       </c>
       <c r="K577" t="n">
-        <v>24.99999999999956</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L577" t="n">
         <v>12.99999999999998</v>
@@ -29968,7 +29980,7 @@
         <v>35.00000000000022</v>
       </c>
       <c r="K578" t="n">
-        <v>11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L578" t="n">
         <v>12.97999999999998</v>
@@ -30019,7 +30031,7 @@
         <v>35.00000000000022</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L579" t="n">
         <v>12.95999999999998</v>
@@ -30070,7 +30082,7 @@
         <v>35.10000000000022</v>
       </c>
       <c r="K580" t="n">
-        <v>-11.11111111111091</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L580" t="n">
         <v>12.93999999999998</v>
@@ -30121,7 +30133,7 @@
         <v>35.10000000000022</v>
       </c>
       <c r="K581" t="n">
-        <v>-11.11111111111091</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L581" t="n">
         <v>12.90999999999998</v>
@@ -30172,7 +30184,7 @@
         <v>35.10000000000022</v>
       </c>
       <c r="K582" t="n">
-        <v>-11.11111111111091</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L582" t="n">
         <v>12.88999999999998</v>
@@ -30274,7 +30286,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K584" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>12.87999999999998</v>
@@ -30325,7 +30337,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K585" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L585" t="n">
         <v>12.87999999999998</v>
@@ -30376,7 +30388,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K586" t="n">
-        <v>-24.99999999999956</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L586" t="n">
         <v>12.87999999999998</v>
@@ -30427,7 +30439,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K587" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L587" t="n">
         <v>12.86999999999999</v>
@@ -30478,7 +30490,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K588" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>12.86999999999999</v>
@@ -30529,7 +30541,7 @@
         <v>35.30000000000022</v>
       </c>
       <c r="K589" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>12.85999999999999</v>
@@ -30580,7 +30592,7 @@
         <v>35.30000000000022</v>
       </c>
       <c r="K590" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>12.85999999999999</v>
@@ -30631,7 +30643,7 @@
         <v>35.50000000000023</v>
       </c>
       <c r="K591" t="n">
-        <v>-11.11111111111091</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L591" t="n">
         <v>12.87999999999998</v>
@@ -30682,7 +30694,7 @@
         <v>35.60000000000023</v>
       </c>
       <c r="K592" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>12.88999999999998</v>
@@ -30733,7 +30745,7 @@
         <v>35.70000000000023</v>
       </c>
       <c r="K593" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L593" t="n">
         <v>12.89999999999998</v>
@@ -30835,7 +30847,7 @@
         <v>35.90000000000023</v>
       </c>
       <c r="K595" t="n">
-        <v>9.090909090908928</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L595" t="n">
         <v>12.90999999999998</v>
@@ -30886,7 +30898,7 @@
         <v>35.90000000000023</v>
       </c>
       <c r="K596" t="n">
-        <v>9.090909090908928</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L596" t="n">
         <v>12.91999999999998</v>
@@ -30937,7 +30949,7 @@
         <v>35.90000000000023</v>
       </c>
       <c r="K597" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L597" t="n">
         <v>12.92999999999998</v>
@@ -30988,7 +31000,7 @@
         <v>36.00000000000023</v>
       </c>
       <c r="K598" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L598" t="n">
         <v>12.92999999999998</v>
@@ -31039,7 +31051,7 @@
         <v>36.00000000000023</v>
       </c>
       <c r="K599" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L599" t="n">
         <v>12.93999999999998</v>
@@ -31090,7 +31102,7 @@
         <v>36.00000000000023</v>
       </c>
       <c r="K600" t="n">
-        <v>11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L600" t="n">
         <v>12.94999999999998</v>
@@ -31192,7 +31204,7 @@
         <v>36.30000000000024</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L602" t="n">
         <v>12.93999999999998</v>
@@ -31294,7 +31306,7 @@
         <v>36.50000000000024</v>
       </c>
       <c r="K604" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>12.93999999999998</v>
@@ -31345,7 +31357,7 @@
         <v>36.50000000000024</v>
       </c>
       <c r="K605" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>12.93999999999998</v>
@@ -31396,7 +31408,7 @@
         <v>36.50000000000024</v>
       </c>
       <c r="K606" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L606" t="n">
         <v>12.93999999999998</v>
@@ -31498,7 +31510,7 @@
         <v>36.70000000000024</v>
       </c>
       <c r="K608" t="n">
-        <v>6.666666666666549</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L608" t="n">
         <v>12.93999999999998</v>
@@ -31549,7 +31561,7 @@
         <v>36.90000000000025</v>
       </c>
       <c r="K609" t="n">
-        <v>0</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L609" t="n">
         <v>12.92999999999998</v>
@@ -31600,7 +31612,7 @@
         <v>37.10000000000025</v>
       </c>
       <c r="K610" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>12.93999999999998</v>
@@ -31651,7 +31663,7 @@
         <v>37.10000000000025</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L611" t="n">
         <v>12.93999999999998</v>
@@ -31702,7 +31714,7 @@
         <v>37.10000000000025</v>
       </c>
       <c r="K612" t="n">
-        <v>6.666666666666549</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L612" t="n">
         <v>12.95999999999998</v>
@@ -31855,7 +31867,7 @@
         <v>37.20000000000025</v>
       </c>
       <c r="K615" t="n">
-        <v>7.692307692307556</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L615" t="n">
         <v>12.98999999999998</v>
@@ -31906,7 +31918,7 @@
         <v>37.30000000000025</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L616" t="n">
         <v>12.98999999999998</v>
@@ -31957,7 +31969,7 @@
         <v>37.40000000000025</v>
       </c>
       <c r="K617" t="n">
-        <v>-6.666666666666549</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L617" t="n">
         <v>12.98999999999998</v>
@@ -32008,7 +32020,7 @@
         <v>37.50000000000026</v>
       </c>
       <c r="K618" t="n">
-        <v>6.666666666666549</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L618" t="n">
         <v>12.98999999999998</v>
@@ -32059,7 +32071,7 @@
         <v>37.60000000000026</v>
       </c>
       <c r="K619" t="n">
-        <v>12.49999999999978</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L619" t="n">
         <v>13.01999999999998</v>
@@ -32110,7 +32122,7 @@
         <v>37.60000000000026</v>
       </c>
       <c r="K620" t="n">
-        <v>12.49999999999978</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L620" t="n">
         <v>13.02999999999998</v>
@@ -32161,7 +32173,7 @@
         <v>37.60000000000026</v>
       </c>
       <c r="K621" t="n">
-        <v>6.666666666666549</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L621" t="n">
         <v>13.03999999999997</v>
@@ -32212,7 +32224,7 @@
         <v>37.70000000000026</v>
       </c>
       <c r="K622" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>13.03999999999997</v>
@@ -32263,7 +32275,7 @@
         <v>37.80000000000026</v>
       </c>
       <c r="K623" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>13.04999999999997</v>
@@ -32314,7 +32326,7 @@
         <v>38.00000000000026</v>
       </c>
       <c r="K624" t="n">
-        <v>19.99999999999976</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L624" t="n">
         <v>13.06999999999998</v>
@@ -32365,7 +32377,7 @@
         <v>38.10000000000026</v>
       </c>
       <c r="K625" t="n">
-        <v>12.49999999999978</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L625" t="n">
         <v>13.07999999999998</v>
@@ -32416,7 +32428,7 @@
         <v>38.10000000000026</v>
       </c>
       <c r="K626" t="n">
-        <v>12.49999999999978</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L626" t="n">
         <v>13.09999999999997</v>
@@ -32467,7 +32479,7 @@
         <v>38.20000000000027</v>
       </c>
       <c r="K627" t="n">
-        <v>24.99999999999967</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L627" t="n">
         <v>13.13999999999998</v>
@@ -32518,7 +32530,7 @@
         <v>38.20000000000027</v>
       </c>
       <c r="K628" t="n">
-        <v>19.99999999999976</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L628" t="n">
         <v>13.16999999999998</v>
@@ -32569,7 +32581,7 @@
         <v>38.20000000000027</v>
       </c>
       <c r="K629" t="n">
-        <v>38.46153846153791</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L629" t="n">
         <v>13.18999999999998</v>
@@ -32620,7 +32632,7 @@
         <v>38.30000000000027</v>
       </c>
       <c r="K630" t="n">
-        <v>16.66666666666637</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L630" t="n">
         <v>13.19999999999998</v>
@@ -32671,7 +32683,7 @@
         <v>38.30000000000027</v>
       </c>
       <c r="K631" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L631" t="n">
         <v>13.20999999999998</v>
@@ -32722,7 +32734,7 @@
         <v>38.40000000000027</v>
       </c>
       <c r="K632" t="n">
-        <v>23.0769230769228</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L632" t="n">
         <v>13.23999999999998</v>
@@ -32773,7 +32785,7 @@
         <v>38.50000000000027</v>
       </c>
       <c r="K633" t="n">
-        <v>28.57142857142819</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L633" t="n">
         <v>13.26999999999998</v>
@@ -32824,7 +32836,7 @@
         <v>38.50000000000027</v>
       </c>
       <c r="K634" t="n">
-        <v>23.0769230769228</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L634" t="n">
         <v>13.27999999999998</v>
@@ -32875,7 +32887,7 @@
         <v>38.60000000000027</v>
       </c>
       <c r="K635" t="n">
-        <v>14.28571428571416</v>
+        <v>20</v>
       </c>
       <c r="L635" t="n">
         <v>13.28999999999998</v>
@@ -32926,7 +32938,7 @@
         <v>38.60000000000027</v>
       </c>
       <c r="K636" t="n">
-        <v>23.0769230769228</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>13.29999999999998</v>
@@ -32977,7 +32989,7 @@
         <v>38.70000000000027</v>
       </c>
       <c r="K637" t="n">
-        <v>38.46153846153791</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L637" t="n">
         <v>13.30999999999998</v>
@@ -33028,7 +33040,7 @@
         <v>38.80000000000027</v>
       </c>
       <c r="K638" t="n">
-        <v>38.46153846153791</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L638" t="n">
         <v>13.32999999999998</v>
@@ -33079,7 +33091,7 @@
         <v>38.80000000000027</v>
       </c>
       <c r="K639" t="n">
-        <v>33.33333333333289</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L639" t="n">
         <v>13.34999999999998</v>
@@ -33130,7 +33142,7 @@
         <v>38.80000000000027</v>
       </c>
       <c r="K640" t="n">
-        <v>33.33333333333289</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L640" t="n">
         <v>13.37999999999998</v>
@@ -33181,7 +33193,7 @@
         <v>38.80000000000027</v>
       </c>
       <c r="K641" t="n">
-        <v>33.33333333333289</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L641" t="n">
         <v>13.40999999999998</v>
@@ -33232,7 +33244,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K642" t="n">
-        <v>23.07692307692293</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L642" t="n">
         <v>13.40999999999998</v>
@@ -33283,7 +33295,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K643" t="n">
-        <v>16.66666666666662</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L643" t="n">
         <v>13.39999999999998</v>
@@ -33385,7 +33397,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K645" t="n">
-        <v>11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L645" t="n">
         <v>13.38999999999998</v>
@@ -33436,7 +33448,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K646" t="n">
-        <v>11.1111111111112</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L646" t="n">
         <v>13.38999999999998</v>
@@ -33487,7 +33499,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L647" t="n">
         <v>13.37999999999998</v>
@@ -33538,7 +33550,7 @@
         <v>39.00000000000027</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L648" t="n">
         <v>13.35999999999999</v>
@@ -33589,7 +33601,7 @@
         <v>39.10000000000027</v>
       </c>
       <c r="K649" t="n">
-        <v>-11.1111111111112</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L649" t="n">
         <v>13.32999999999998</v>
@@ -33640,7 +33652,7 @@
         <v>39.30000000000027</v>
       </c>
       <c r="K650" t="n">
-        <v>-19.99999999999993</v>
+        <v>-100.0000000000014</v>
       </c>
       <c r="L650" t="n">
         <v>13.27999999999998</v>
@@ -33691,7 +33703,7 @@
         <v>39.30000000000027</v>
       </c>
       <c r="K651" t="n">
-        <v>-19.99999999999993</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L651" t="n">
         <v>13.22999999999998</v>
@@ -33742,7 +33754,7 @@
         <v>39.70000000000027</v>
       </c>
       <c r="K652" t="n">
-        <v>7.692307692307682</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L652" t="n">
         <v>13.23999999999998</v>
@@ -33793,7 +33805,7 @@
         <v>40.10000000000026</v>
       </c>
       <c r="K653" t="n">
-        <v>-25.00000000000011</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L653" t="n">
         <v>13.20999999999998</v>
@@ -33844,7 +33856,7 @@
         <v>40.20000000000027</v>
       </c>
       <c r="K654" t="n">
-        <v>-29.41176470588243</v>
+        <v>-33.33333333333348</v>
       </c>
       <c r="L654" t="n">
         <v>13.16999999999998</v>
@@ -33895,7 +33907,7 @@
         <v>40.20000000000027</v>
       </c>
       <c r="K655" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333348</v>
       </c>
       <c r="L655" t="n">
         <v>13.12999999999998</v>
@@ -33946,7 +33958,7 @@
         <v>40.30000000000027</v>
       </c>
       <c r="K656" t="n">
-        <v>-29.41176470588243</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L656" t="n">
         <v>13.07999999999998</v>
@@ -33997,7 +34009,7 @@
         <v>40.30000000000027</v>
       </c>
       <c r="K657" t="n">
-        <v>-37.50000000000011</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L657" t="n">
         <v>13.02999999999998</v>
@@ -34048,7 +34060,7 @@
         <v>40.50000000000027</v>
       </c>
       <c r="K658" t="n">
-        <v>-29.41176470588243</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L658" t="n">
         <v>12.99999999999998</v>
@@ -34099,7 +34111,7 @@
         <v>40.50000000000027</v>
       </c>
       <c r="K659" t="n">
-        <v>-29.41176470588243</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>12.97999999999998</v>
@@ -34150,7 +34162,7 @@
         <v>40.50000000000027</v>
       </c>
       <c r="K660" t="n">
-        <v>-29.41176470588243</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>12.97999999999998</v>
@@ -34201,7 +34213,7 @@
         <v>40.60000000000027</v>
       </c>
       <c r="K661" t="n">
-        <v>-22.22222222222228</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L661" t="n">
         <v>12.98999999999998</v>
@@ -34252,7 +34264,7 @@
         <v>40.60000000000027</v>
       </c>
       <c r="K662" t="n">
-        <v>-12.50000000000006</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L662" t="n">
         <v>12.95999999999998</v>
@@ -34303,7 +34315,7 @@
         <v>40.70000000000027</v>
       </c>
       <c r="K663" t="n">
-        <v>-5.882352941176544</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L663" t="n">
         <v>12.97999999999998</v>
@@ -34354,7 +34366,7 @@
         <v>40.70000000000027</v>
       </c>
       <c r="K664" t="n">
-        <v>-5.882352941176544</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L664" t="n">
         <v>13.00999999999998</v>
@@ -34405,7 +34417,7 @@
         <v>40.80000000000027</v>
       </c>
       <c r="K665" t="n">
-        <v>0</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L665" t="n">
         <v>13.04999999999998</v>
@@ -34456,7 +34468,7 @@
         <v>40.90000000000028</v>
       </c>
       <c r="K666" t="n">
-        <v>5.263157894736808</v>
+        <v>99.99999999999852</v>
       </c>
       <c r="L666" t="n">
         <v>13.10999999999998</v>
@@ -34507,7 +34519,7 @@
         <v>41.00000000000028</v>
       </c>
       <c r="K667" t="n">
-        <v>9.999999999999929</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L667" t="n">
         <v>13.17999999999997</v>
@@ -34558,7 +34570,7 @@
         <v>41.10000000000028</v>
       </c>
       <c r="K668" t="n">
-        <v>4.761904761904725</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L668" t="n">
         <v>13.21999999999998</v>
@@ -34609,7 +34621,7 @@
         <v>41.10000000000028</v>
       </c>
       <c r="K669" t="n">
-        <v>10.00000000000002</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L669" t="n">
         <v>13.25999999999998</v>
@@ -34660,7 +34672,7 @@
         <v>41.10000000000028</v>
       </c>
       <c r="K670" t="n">
-        <v>22.2222222222221</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L670" t="n">
         <v>13.29999999999998</v>
@@ -34711,7 +34723,7 @@
         <v>41.20000000000028</v>
       </c>
       <c r="K671" t="n">
-        <v>15.78947368421046</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L671" t="n">
         <v>13.31999999999998</v>
@@ -34762,7 +34774,7 @@
         <v>41.20000000000028</v>
       </c>
       <c r="K672" t="n">
-        <v>-6.666666666666579</v>
+        <v>20</v>
       </c>
       <c r="L672" t="n">
         <v>13.33999999999998</v>
@@ -34813,7 +34825,7 @@
         <v>41.30000000000028</v>
       </c>
       <c r="K673" t="n">
-        <v>16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L673" t="n">
         <v>13.33999999999998</v>
@@ -34864,7 +34876,7 @@
         <v>41.30000000000028</v>
       </c>
       <c r="K674" t="n">
-        <v>27.27272727272679</v>
+        <v>-20</v>
       </c>
       <c r="L674" t="n">
         <v>13.33999999999998</v>
@@ -34915,7 +34927,7 @@
         <v>41.30000000000028</v>
       </c>
       <c r="K675" t="n">
-        <v>27.27272727272679</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L675" t="n">
         <v>13.32999999999998</v>
@@ -34966,7 +34978,7 @@
         <v>41.40000000000028</v>
       </c>
       <c r="K676" t="n">
-        <v>27.27272727272679</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L676" t="n">
         <v>13.29999999999998</v>
@@ -35017,7 +35029,7 @@
         <v>41.40000000000028</v>
       </c>
       <c r="K677" t="n">
-        <v>27.27272727272679</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L677" t="n">
         <v>13.25999999999998</v>
@@ -35068,7 +35080,7 @@
         <v>41.50000000000028</v>
       </c>
       <c r="K678" t="n">
-        <v>19.99999999999964</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L678" t="n">
         <v>13.23999999999998</v>
@@ -35119,7 +35131,7 @@
         <v>41.60000000000029</v>
       </c>
       <c r="K679" t="n">
-        <v>9.090909090908928</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L679" t="n">
         <v>13.20999999999997</v>
@@ -35170,7 +35182,7 @@
         <v>41.80000000000029</v>
       </c>
       <c r="K680" t="n">
-        <v>23.0769230769228</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>13.19999999999997</v>
@@ -35221,7 +35233,7 @@
         <v>41.90000000000029</v>
       </c>
       <c r="K681" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L681" t="n">
         <v>13.18999999999997</v>
@@ -35272,7 +35284,7 @@
         <v>42.00000000000029</v>
       </c>
       <c r="K682" t="n">
-        <v>14.28571428571416</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L682" t="n">
         <v>13.18999999999997</v>
@@ -35425,7 +35437,7 @@
         <v>42.10000000000029</v>
       </c>
       <c r="K685" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L685" t="n">
         <v>13.18999999999997</v>
@@ -35476,7 +35488,7 @@
         <v>42.10000000000029</v>
       </c>
       <c r="K686" t="n">
-        <v>-16.66666666666652</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L686" t="n">
         <v>13.19999999999997</v>
@@ -35527,7 +35539,7 @@
         <v>42.20000000000029</v>
       </c>
       <c r="K687" t="n">
-        <v>-33.33333333333289</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L687" t="n">
         <v>13.19999999999997</v>
@@ -35578,7 +35590,7 @@
         <v>43.10000000000029</v>
       </c>
       <c r="K688" t="n">
-        <v>29.99999999999977</v>
+        <v>59.99999999999974</v>
       </c>
       <c r="L688" t="n">
         <v>13.27999999999997</v>
@@ -35629,7 +35641,7 @@
         <v>43.20000000000029</v>
       </c>
       <c r="K689" t="n">
-        <v>23.80952380952363</v>
+        <v>42.85714285714266</v>
       </c>
       <c r="L689" t="n">
         <v>13.35999999999997</v>
@@ -35680,7 +35692,7 @@
         <v>43.20000000000029</v>
       </c>
       <c r="K690" t="n">
-        <v>23.80952380952363</v>
+        <v>53.84615384615375</v>
       </c>
       <c r="L690" t="n">
         <v>13.41999999999997</v>
@@ -35731,7 +35743,7 @@
         <v>43.4000000000003</v>
       </c>
       <c r="K691" t="n">
-        <v>18.18181818181798</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L691" t="n">
         <v>13.46999999999997</v>
@@ -35782,7 +35794,7 @@
         <v>43.60000000000029</v>
       </c>
       <c r="K692" t="n">
-        <v>8.333333333333259</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L692" t="n">
         <v>13.48999999999997</v>
@@ -35833,7 +35845,7 @@
         <v>43.8000000000003</v>
       </c>
       <c r="K693" t="n">
-        <v>19.99999999999989</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L693" t="n">
         <v>13.53999999999997</v>
@@ -35884,7 +35896,7 @@
         <v>43.8000000000003</v>
       </c>
       <c r="K694" t="n">
-        <v>19.99999999999989</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L694" t="n">
         <v>13.58999999999997</v>
@@ -35935,7 +35947,7 @@
         <v>43.8000000000003</v>
       </c>
       <c r="K695" t="n">
-        <v>19.99999999999989</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L695" t="n">
         <v>13.63999999999997</v>
@@ -35986,7 +35998,7 @@
         <v>44.0000000000003</v>
       </c>
       <c r="K696" t="n">
-        <v>30.76923076923061</v>
+        <v>44.44444444444438</v>
       </c>
       <c r="L696" t="n">
         <v>13.70999999999997</v>
@@ -36037,7 +36049,7 @@
         <v>44.1000000000003</v>
       </c>
       <c r="K697" t="n">
-        <v>33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L697" t="n">
         <v>13.79999999999997</v>
@@ -36088,7 +36100,7 @@
         <v>44.2000000000003</v>
       </c>
       <c r="K698" t="n">
-        <v>25.9259259259258</v>
+        <v>0</v>
       </c>
       <c r="L698" t="n">
         <v>13.78999999999997</v>
@@ -36139,7 +36151,7 @@
         <v>44.2000000000003</v>
       </c>
       <c r="K699" t="n">
-        <v>30.76923076923061</v>
+        <v>0</v>
       </c>
       <c r="L699" t="n">
         <v>13.78999999999997</v>
@@ -36190,7 +36202,7 @@
         <v>44.3000000000003</v>
       </c>
       <c r="K700" t="n">
-        <v>19.99999999999989</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L700" t="n">
         <v>13.77999999999998</v>
@@ -36241,7 +36253,7 @@
         <v>44.60000000000031</v>
       </c>
       <c r="K701" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L701" t="n">
         <v>13.75999999999998</v>
@@ -36292,7 +36304,7 @@
         <v>44.80000000000031</v>
       </c>
       <c r="K702" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L702" t="n">
         <v>13.77999999999998</v>
@@ -36343,7 +36355,7 @@
         <v>45.00000000000031</v>
       </c>
       <c r="K703" t="n">
-        <v>24.13793103448263</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L703" t="n">
         <v>13.79999999999998</v>
@@ -36394,7 +36406,7 @@
         <v>45.10000000000031</v>
       </c>
       <c r="K704" t="n">
-        <v>19.9999999999999</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L704" t="n">
         <v>13.80999999999998</v>
@@ -36445,7 +36457,7 @@
         <v>45.20000000000032</v>
       </c>
       <c r="K705" t="n">
-        <v>22.58064516129019</v>
+        <v>0</v>
       </c>
       <c r="L705" t="n">
         <v>13.82999999999998</v>
@@ -36496,7 +36508,7 @@
         <v>45.20000000000032</v>
       </c>
       <c r="K706" t="n">
-        <v>22.58064516129019</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L706" t="n">
         <v>13.82999999999998</v>
@@ -36547,7 +36559,7 @@
         <v>45.20000000000032</v>
       </c>
       <c r="K707" t="n">
-        <v>26.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="L707" t="n">
         <v>13.81999999999998</v>
@@ -36598,7 +36610,7 @@
         <v>45.20000000000032</v>
       </c>
       <c r="K708" t="n">
-        <v>-4.761904761904693</v>
+        <v>0</v>
       </c>
       <c r="L708" t="n">
         <v>13.81999999999998</v>
@@ -36649,7 +36661,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K709" t="n">
-        <v>-4.761904761904693</v>
+        <v>0</v>
       </c>
       <c r="L709" t="n">
         <v>13.80999999999998</v>
@@ -36700,7 +36712,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K710" t="n">
-        <v>-4.761904761904693</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L710" t="n">
         <v>13.80999999999998</v>
@@ -36751,7 +36763,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K711" t="n">
-        <v>5.263157894736862</v>
+        <v>20</v>
       </c>
       <c r="L711" t="n">
         <v>13.83999999999998</v>
@@ -36802,7 +36814,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K712" t="n">
-        <v>17.6470588235292</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L712" t="n">
         <v>13.84999999999999</v>
@@ -36853,7 +36865,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K713" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L713" t="n">
         <v>13.83999999999999</v>
@@ -36904,7 +36916,7 @@
         <v>45.30000000000032</v>
       </c>
       <c r="K714" t="n">
-        <v>6.666666666666667</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L714" t="n">
         <v>13.83999999999999</v>
@@ -36955,7 +36967,7 @@
         <v>45.40000000000032</v>
       </c>
       <c r="K715" t="n">
-        <v>12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>13.83999999999999</v>
@@ -37006,7 +37018,7 @@
         <v>45.50000000000032</v>
       </c>
       <c r="K716" t="n">
-        <v>-6.666666666666549</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L716" t="n">
         <v>13.82999999999999</v>
@@ -37057,7 +37069,7 @@
         <v>45.60000000000032</v>
       </c>
       <c r="K717" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L717" t="n">
         <v>13.82999999999999</v>
@@ -37108,7 +37120,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K718" t="n">
-        <v>6.666666666666549</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L718" t="n">
         <v>13.83999999999999</v>
@@ -37159,7 +37171,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K719" t="n">
-        <v>6.666666666666549</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L719" t="n">
         <v>13.85999999999999</v>
@@ -37210,7 +37222,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K720" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L720" t="n">
         <v>13.87999999999998</v>
@@ -37261,7 +37273,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K721" t="n">
-        <v>45.45454545454481</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L721" t="n">
         <v>13.89999999999998</v>
@@ -37312,7 +37324,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K722" t="n">
-        <v>33.33333333333294</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L722" t="n">
         <v>13.91999999999998</v>
@@ -37363,7 +37375,7 @@
         <v>45.70000000000032</v>
       </c>
       <c r="K723" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L723" t="n">
         <v>13.93999999999998</v>
@@ -37414,7 +37426,7 @@
         <v>45.80000000000032</v>
       </c>
       <c r="K724" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L724" t="n">
         <v>13.94999999999998</v>
@@ -37465,7 +37477,7 @@
         <v>45.80000000000032</v>
       </c>
       <c r="K725" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L725" t="n">
         <v>13.94999999999998</v>
@@ -37567,7 +37579,7 @@
         <v>45.90000000000033</v>
       </c>
       <c r="K727" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L727" t="n">
         <v>13.94999999999998</v>
@@ -37618,7 +37630,7 @@
         <v>46.00000000000033</v>
       </c>
       <c r="K728" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L728" t="n">
         <v>13.91999999999998</v>
@@ -37669,7 +37681,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K729" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L729" t="n">
         <v>13.87999999999998</v>
@@ -37720,7 +37732,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K730" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L730" t="n">
         <v>13.83999999999998</v>
@@ -37771,7 +37783,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K731" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L731" t="n">
         <v>13.79999999999998</v>
@@ -37822,7 +37834,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K732" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L732" t="n">
         <v>13.75999999999998</v>
@@ -37873,7 +37885,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K733" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L733" t="n">
         <v>13.71999999999998</v>
@@ -37924,7 +37936,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K734" t="n">
-        <v>-24.99999999999978</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L734" t="n">
         <v>13.68999999999997</v>
@@ -37975,7 +37987,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K735" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L735" t="n">
         <v>13.65999999999997</v>
@@ -38026,7 +38038,7 @@
         <v>46.10000000000033</v>
       </c>
       <c r="K736" t="n">
-        <v>-33.33333333333304</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L736" t="n">
         <v>13.62999999999997</v>
@@ -38077,7 +38089,7 @@
         <v>46.20000000000033</v>
       </c>
       <c r="K737" t="n">
-        <v>-66.66666666666578</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L737" t="n">
         <v>13.59999999999997</v>
@@ -38128,7 +38140,7 @@
         <v>46.30000000000033</v>
       </c>
       <c r="K738" t="n">
-        <v>-66.66666666666578</v>
+        <v>0</v>
       </c>
       <c r="L738" t="n">
         <v>13.58999999999997</v>
@@ -38179,7 +38191,7 @@
         <v>46.40000000000033</v>
       </c>
       <c r="K739" t="n">
-        <v>-42.85714285714235</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L739" t="n">
         <v>13.59999999999997</v>
@@ -38230,7 +38242,7 @@
         <v>46.50000000000033</v>
       </c>
       <c r="K740" t="n">
-        <v>-49.99999999999933</v>
+        <v>0</v>
       </c>
       <c r="L740" t="n">
         <v>13.59999999999997</v>
@@ -38281,7 +38293,7 @@
         <v>46.60000000000034</v>
       </c>
       <c r="K741" t="n">
-        <v>-33.33333333333294</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L741" t="n">
         <v>13.60999999999997</v>
@@ -38332,7 +38344,7 @@
         <v>46.70000000000034</v>
       </c>
       <c r="K742" t="n">
-        <v>-39.99999999999947</v>
+        <v>0</v>
       </c>
       <c r="L742" t="n">
         <v>13.60999999999997</v>
@@ -38383,7 +38395,7 @@
         <v>46.80000000000034</v>
       </c>
       <c r="K743" t="n">
-        <v>-27.27272727272695</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L743" t="n">
         <v>13.61999999999997</v>
@@ -38434,7 +38446,7 @@
         <v>46.90000000000034</v>
       </c>
       <c r="K744" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L744" t="n">
         <v>13.61999999999997</v>
@@ -38485,7 +38497,7 @@
         <v>46.90000000000034</v>
       </c>
       <c r="K745" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L745" t="n">
         <v>13.61999999999997</v>
@@ -38536,7 +38548,7 @@
         <v>46.90000000000034</v>
       </c>
       <c r="K746" t="n">
-        <v>-27.27272727272695</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L746" t="n">
         <v>13.61999999999997</v>
@@ -38587,7 +38599,7 @@
         <v>47.00000000000034</v>
       </c>
       <c r="K747" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L747" t="n">
         <v>13.63999999999997</v>
@@ -38638,7 +38650,7 @@
         <v>47.20000000000034</v>
       </c>
       <c r="K748" t="n">
-        <v>-16.66666666666637</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L748" t="n">
         <v>13.62999999999997</v>
@@ -38740,7 +38752,7 @@
         <v>47.30000000000035</v>
       </c>
       <c r="K750" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L750" t="n">
         <v>13.61999999999997</v>
@@ -38791,7 +38803,7 @@
         <v>47.40000000000035</v>
       </c>
       <c r="K751" t="n">
-        <v>-7.692307692307556</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L751" t="n">
         <v>13.59999999999997</v>
@@ -38842,7 +38854,7 @@
         <v>47.50000000000035</v>
       </c>
       <c r="K752" t="n">
-        <v>-14.28571428571403</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L752" t="n">
         <v>13.57999999999997</v>
@@ -38893,7 +38905,7 @@
         <v>47.50000000000035</v>
       </c>
       <c r="K753" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L753" t="n">
         <v>13.54999999999997</v>
@@ -38995,7 +39007,7 @@
         <v>47.80000000000035</v>
       </c>
       <c r="K755" t="n">
-        <v>-5.882352941176391</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L755" t="n">
         <v>13.53999999999997</v>
@@ -39046,7 +39058,7 @@
         <v>47.80000000000035</v>
       </c>
       <c r="K756" t="n">
-        <v>-5.882352941176391</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L756" t="n">
         <v>13.52999999999998</v>
@@ -39097,7 +39109,7 @@
         <v>47.90000000000035</v>
       </c>
       <c r="K757" t="n">
-        <v>-5.882352941176391</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L757" t="n">
         <v>13.49999999999998</v>
@@ -39148,7 +39160,7 @@
         <v>47.90000000000035</v>
       </c>
       <c r="K758" t="n">
-        <v>-12.49999999999983</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L758" t="n">
         <v>13.48999999999998</v>
@@ -39199,7 +39211,7 @@
         <v>47.90000000000035</v>
       </c>
       <c r="K759" t="n">
-        <v>-19.99999999999974</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L759" t="n">
         <v>13.46999999999998</v>
@@ -39250,7 +39262,7 @@
         <v>47.90000000000035</v>
       </c>
       <c r="K760" t="n">
-        <v>-14.28571428571411</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L760" t="n">
         <v>13.44999999999998</v>
@@ -39301,7 +39313,7 @@
         <v>47.90000000000035</v>
       </c>
       <c r="K761" t="n">
-        <v>-23.07692307692279</v>
+        <v>0</v>
       </c>
       <c r="L761" t="n">
         <v>13.43999999999998</v>
@@ -39352,7 +39364,7 @@
         <v>48.00000000000035</v>
       </c>
       <c r="K762" t="n">
-        <v>-7.692307692307598</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L762" t="n">
         <v>13.44999999999998</v>
@@ -39403,7 +39415,7 @@
         <v>48.10000000000035</v>
       </c>
       <c r="K763" t="n">
-        <v>-23.07692307692279</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L763" t="n">
         <v>13.44999999999998</v>
@@ -39454,7 +39466,7 @@
         <v>48.20000000000035</v>
       </c>
       <c r="K764" t="n">
-        <v>-7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L764" t="n">
         <v>13.43999999999998</v>
@@ -39505,7 +39517,7 @@
         <v>48.30000000000035</v>
       </c>
       <c r="K765" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L765" t="n">
         <v>13.44999999999998</v>
@@ -39556,7 +39568,7 @@
         <v>48.30000000000035</v>
       </c>
       <c r="K766" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L766" t="n">
         <v>13.45999999999998</v>
@@ -39607,7 +39619,7 @@
         <v>48.40000000000035</v>
       </c>
       <c r="K767" t="n">
-        <v>-14.28571428571411</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L767" t="n">
         <v>13.46999999999998</v>
@@ -39658,7 +39670,7 @@
         <v>48.50000000000036</v>
       </c>
       <c r="K768" t="n">
-        <v>-7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>13.46999999999998</v>
@@ -39709,7 +39721,7 @@
         <v>48.60000000000036</v>
       </c>
       <c r="K769" t="n">
-        <v>-7.692307692307598</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L769" t="n">
         <v>13.47999999999998</v>
@@ -39760,7 +39772,7 @@
         <v>48.70000000000036</v>
       </c>
       <c r="K770" t="n">
-        <v>-14.28571428571411</v>
+        <v>0</v>
       </c>
       <c r="L770" t="n">
         <v>13.47999999999998</v>
@@ -39913,7 +39925,7 @@
         <v>48.90000000000036</v>
       </c>
       <c r="K773" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L773" t="n">
         <v>13.47999999999998</v>
@@ -39964,7 +39976,7 @@
         <v>48.90000000000036</v>
       </c>
       <c r="K774" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L774" t="n">
         <v>13.46999999999998</v>
@@ -40015,7 +40027,7 @@
         <v>49.00000000000036</v>
       </c>
       <c r="K775" t="n">
-        <v>-16.66666666666637</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L775" t="n">
         <v>13.43999999999998</v>
@@ -40066,7 +40078,7 @@
         <v>49.10000000000036</v>
       </c>
       <c r="K776" t="n">
-        <v>-7.692307692307556</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L776" t="n">
         <v>13.41999999999998</v>
@@ -40168,7 +40180,7 @@
         <v>49.10000000000036</v>
       </c>
       <c r="K778" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L778" t="n">
         <v>13.40999999999998</v>
@@ -40219,7 +40231,7 @@
         <v>49.20000000000037</v>
       </c>
       <c r="K779" t="n">
-        <v>7.692307692307556</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L779" t="n">
         <v>13.40999999999998</v>
@@ -40270,7 +40282,7 @@
         <v>49.20000000000037</v>
       </c>
       <c r="K780" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L780" t="n">
         <v>13.41999999999998</v>
@@ -40321,7 +40333,7 @@
         <v>49.20000000000037</v>
       </c>
       <c r="K781" t="n">
-        <v>7.692307692307556</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L781" t="n">
         <v>13.41999999999998</v>
@@ -40372,7 +40384,7 @@
         <v>49.30000000000037</v>
       </c>
       <c r="K782" t="n">
-        <v>7.692307692307556</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L782" t="n">
         <v>13.43999999999998</v>
@@ -40423,7 +40435,7 @@
         <v>49.40000000000037</v>
       </c>
       <c r="K783" t="n">
-        <v>7.692307692307556</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L783" t="n">
         <v>13.44999999999998</v>
@@ -40474,7 +40486,7 @@
         <v>49.40000000000037</v>
       </c>
       <c r="K784" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L784" t="n">
         <v>13.45999999999998</v>
@@ -40525,7 +40537,7 @@
         <v>49.50000000000037</v>
       </c>
       <c r="K785" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L785" t="n">
         <v>13.46999999999998</v>
@@ -40576,7 +40588,7 @@
         <v>49.50000000000037</v>
       </c>
       <c r="K786" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L786" t="n">
         <v>13.46999999999998</v>
@@ -40627,7 +40639,7 @@
         <v>49.60000000000037</v>
       </c>
       <c r="K787" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L787" t="n">
         <v>13.47999999999998</v>
@@ -40678,7 +40690,7 @@
         <v>49.70000000000037</v>
       </c>
       <c r="K788" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L788" t="n">
         <v>13.47999999999998</v>
@@ -40729,7 +40741,7 @@
         <v>49.70000000000037</v>
       </c>
       <c r="K789" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L789" t="n">
         <v>13.46999999999998</v>
@@ -40780,7 +40792,7 @@
         <v>49.70000000000037</v>
       </c>
       <c r="K790" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L790" t="n">
         <v>13.45999999999998</v>
@@ -40831,7 +40843,7 @@
         <v>49.80000000000037</v>
       </c>
       <c r="K791" t="n">
-        <v>-19.99999999999964</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L791" t="n">
         <v>13.43999999999998</v>
@@ -40882,7 +40894,7 @@
         <v>49.90000000000038</v>
       </c>
       <c r="K792" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L792" t="n">
         <v>13.41999999999998</v>
@@ -40933,7 +40945,7 @@
         <v>49.90000000000038</v>
       </c>
       <c r="K793" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L793" t="n">
         <v>13.40999999999998</v>
@@ -41035,7 +41047,7 @@
         <v>49.90000000000038</v>
       </c>
       <c r="K795" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L795" t="n">
         <v>13.39999999999998</v>
@@ -41086,7 +41098,7 @@
         <v>49.90000000000038</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L796" t="n">
         <v>13.39999999999998</v>
@@ -41137,7 +41149,7 @@
         <v>50.00000000000038</v>
       </c>
       <c r="K797" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L797" t="n">
         <v>13.39999999999998</v>
@@ -41239,7 +41251,7 @@
         <v>50.10000000000038</v>
       </c>
       <c r="K799" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L799" t="n">
         <v>13.39999999999998</v>
@@ -41290,7 +41302,7 @@
         <v>50.10000000000038</v>
       </c>
       <c r="K800" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L800" t="n">
         <v>13.39999999999998</v>
@@ -41341,7 +41353,7 @@
         <v>50.20000000000038</v>
       </c>
       <c r="K801" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L801" t="n">
         <v>13.41999999999998</v>
@@ -41392,7 +41404,7 @@
         <v>50.20000000000038</v>
       </c>
       <c r="K802" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L802" t="n">
         <v>13.42999999999998</v>
@@ -41443,7 +41455,7 @@
         <v>50.30000000000038</v>
       </c>
       <c r="K803" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L803" t="n">
         <v>13.42999999999998</v>
@@ -41494,7 +41506,7 @@
         <v>50.30000000000038</v>
       </c>
       <c r="K804" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L804" t="n">
         <v>13.42999999999998</v>
@@ -41596,7 +41608,7 @@
         <v>50.30000000000038</v>
       </c>
       <c r="K806" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L806" t="n">
         <v>13.42999999999998</v>
@@ -41647,7 +41659,7 @@
         <v>50.40000000000038</v>
       </c>
       <c r="K807" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L807" t="n">
         <v>13.42999999999998</v>
@@ -41698,7 +41710,7 @@
         <v>50.40000000000038</v>
       </c>
       <c r="K808" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L808" t="n">
         <v>13.43999999999998</v>
@@ -41800,7 +41812,7 @@
         <v>50.60000000000039</v>
       </c>
       <c r="K810" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L810" t="n">
         <v>13.44999999999998</v>
@@ -41851,7 +41863,7 @@
         <v>50.70000000000039</v>
       </c>
       <c r="K811" t="n">
-        <v>11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L811" t="n">
         <v>13.43999999999998</v>
@@ -41902,7 +41914,7 @@
         <v>50.80000000000039</v>
       </c>
       <c r="K812" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L812" t="n">
         <v>13.43999999999998</v>
@@ -42106,7 +42118,7 @@
         <v>50.90000000000039</v>
       </c>
       <c r="K816" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L816" t="n">
         <v>13.43999999999998</v>
@@ -42157,7 +42169,7 @@
         <v>50.90000000000039</v>
       </c>
       <c r="K817" t="n">
-        <v>-11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L817" t="n">
         <v>13.42999999999998</v>
@@ -42259,7 +42271,7 @@
         <v>50.90000000000039</v>
       </c>
       <c r="K819" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L819" t="n">
         <v>13.41999999999998</v>
@@ -42361,7 +42373,7 @@
         <v>51.00000000000039</v>
       </c>
       <c r="K821" t="n">
-        <v>-24.99999999999956</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L821" t="n">
         <v>13.39999999999998</v>
@@ -42412,7 +42424,7 @@
         <v>51.10000000000039</v>
       </c>
       <c r="K822" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L822" t="n">
         <v>13.38999999999998</v>
@@ -42667,7 +42679,7 @@
         <v>51.10000000000039</v>
       </c>
       <c r="K827" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L827" t="n">
         <v>13.38999999999998</v>
@@ -42718,7 +42730,7 @@
         <v>51.10000000000039</v>
       </c>
       <c r="K828" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L828" t="n">
         <v>13.38999999999998</v>
@@ -42769,7 +42781,7 @@
         <v>51.20000000000039</v>
       </c>
       <c r="K829" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L829" t="n">
         <v>13.37999999999998</v>
@@ -42820,7 +42832,7 @@
         <v>51.20000000000039</v>
       </c>
       <c r="K830" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L830" t="n">
         <v>13.36999999999999</v>
@@ -43024,7 +43036,7 @@
         <v>51.6000000000004</v>
       </c>
       <c r="K834" t="n">
-        <v>14.28571428571403</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L834" t="n">
         <v>13.37999999999998</v>
@@ -43177,7 +43189,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K837" t="n">
-        <v>11.11111111111091</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L837" t="n">
         <v>13.38999999999998</v>
@@ -43228,7 +43240,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K838" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L838" t="n">
         <v>13.39999999999998</v>
@@ -43279,7 +43291,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K839" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L839" t="n">
         <v>13.41999999999998</v>
@@ -43330,7 +43342,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K840" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L840" t="n">
         <v>13.43999999999998</v>
@@ -43381,7 +43393,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K841" t="n">
-        <v>24.99999999999956</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L841" t="n">
         <v>13.44999999999998</v>
@@ -43432,7 +43444,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K842" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L842" t="n">
         <v>13.46999999999998</v>
@@ -43483,7 +43495,7 @@
         <v>51.8000000000004</v>
       </c>
       <c r="K843" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L843" t="n">
         <v>13.47999999999998</v>
@@ -43534,7 +43546,7 @@
         <v>51.9000000000004</v>
       </c>
       <c r="K844" t="n">
-        <v>24.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L844" t="n">
         <v>13.48999999999998</v>
@@ -43585,7 +43597,7 @@
         <v>52.00000000000041</v>
       </c>
       <c r="K845" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L845" t="n">
         <v>13.49999999999998</v>
@@ -43636,7 +43648,7 @@
         <v>52.00000000000041</v>
       </c>
       <c r="K846" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L846" t="n">
         <v>13.50999999999998</v>
@@ -43687,7 +43699,7 @@
         <v>52.10000000000041</v>
       </c>
       <c r="K847" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L847" t="n">
         <v>13.49999999999998</v>
@@ -43738,7 +43750,7 @@
         <v>52.20000000000041</v>
       </c>
       <c r="K848" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L848" t="n">
         <v>13.49999999999998</v>
@@ -43789,7 +43801,7 @@
         <v>52.20000000000041</v>
       </c>
       <c r="K849" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L849" t="n">
         <v>13.49999999999998</v>
@@ -43840,7 +43852,7 @@
         <v>52.30000000000041</v>
       </c>
       <c r="K850" t="n">
-        <v>9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L850" t="n">
         <v>13.48999999999998</v>
@@ -43891,7 +43903,7 @@
         <v>52.40000000000041</v>
       </c>
       <c r="K851" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L851" t="n">
         <v>13.48999999999998</v>
@@ -43942,7 +43954,7 @@
         <v>52.40000000000041</v>
       </c>
       <c r="K852" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L852" t="n">
         <v>13.48999999999998</v>
@@ -43993,7 +44005,7 @@
         <v>52.50000000000041</v>
       </c>
       <c r="K853" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L853" t="n">
         <v>13.49999999999998</v>
@@ -44044,7 +44056,7 @@
         <v>52.50000000000041</v>
       </c>
       <c r="K854" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L854" t="n">
         <v>13.49999999999998</v>
@@ -44095,7 +44107,7 @@
         <v>52.60000000000041</v>
       </c>
       <c r="K855" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L855" t="n">
         <v>13.49999999999998</v>
@@ -44146,7 +44158,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K856" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L856" t="n">
         <v>13.50999999999998</v>
@@ -44197,7 +44209,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K857" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L857" t="n">
         <v>13.52999999999998</v>
@@ -44248,7 +44260,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K858" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L858" t="n">
         <v>13.53999999999997</v>
@@ -44299,7 +44311,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K859" t="n">
-        <v>11.11111111111091</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L859" t="n">
         <v>13.54999999999997</v>
@@ -44350,7 +44362,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K860" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L860" t="n">
         <v>13.56999999999997</v>
@@ -44401,7 +44413,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K861" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L861" t="n">
         <v>13.57999999999997</v>
@@ -44452,7 +44464,7 @@
         <v>52.70000000000041</v>
       </c>
       <c r="K862" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L862" t="n">
         <v>13.58999999999997</v>
@@ -44503,7 +44515,7 @@
         <v>52.80000000000042</v>
       </c>
       <c r="K863" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L863" t="n">
         <v>13.57999999999997</v>
@@ -44554,7 +44566,7 @@
         <v>52.90000000000042</v>
       </c>
       <c r="K864" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L864" t="n">
         <v>13.57999999999997</v>
@@ -44605,7 +44617,7 @@
         <v>53.10000000000042</v>
       </c>
       <c r="K865" t="n">
-        <v>-9.090909090908928</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L865" t="n">
         <v>13.56999999999997</v>
@@ -44656,7 +44668,7 @@
         <v>53.20000000000042</v>
       </c>
       <c r="K866" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L866" t="n">
         <v>13.55999999999997</v>
@@ -44707,7 +44719,7 @@
         <v>53.20000000000042</v>
       </c>
       <c r="K867" t="n">
-        <v>9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L867" t="n">
         <v>13.54999999999997</v>
@@ -44758,7 +44770,7 @@
         <v>53.20000000000042</v>
       </c>
       <c r="K868" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L868" t="n">
         <v>13.53999999999997</v>
@@ -44809,7 +44821,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K869" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L869" t="n">
         <v>13.53999999999997</v>
@@ -44860,7 +44872,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K870" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L870" t="n">
         <v>13.53999999999997</v>
@@ -44911,7 +44923,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K871" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L871" t="n">
         <v>13.53999999999997</v>
@@ -44962,7 +44974,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K872" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L872" t="n">
         <v>13.53999999999997</v>
@@ -45064,7 +45076,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K874" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L874" t="n">
         <v>13.54999999999997</v>
@@ -45115,7 +45127,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K875" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L875" t="n">
         <v>13.56999999999997</v>
@@ -45166,7 +45178,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K876" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L876" t="n">
         <v>13.57999999999997</v>
@@ -45217,7 +45229,7 @@
         <v>53.30000000000042</v>
       </c>
       <c r="K877" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L877" t="n">
         <v>13.58999999999997</v>
@@ -45268,7 +45280,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K878" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L878" t="n">
         <v>13.58999999999997</v>
@@ -45319,7 +45331,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K879" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L879" t="n">
         <v>13.57999999999997</v>
@@ -45370,7 +45382,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K880" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L880" t="n">
         <v>13.56999999999997</v>
@@ -45421,7 +45433,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K881" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L881" t="n">
         <v>13.55999999999997</v>
@@ -45472,7 +45484,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K882" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L882" t="n">
         <v>13.54999999999997</v>
@@ -45523,7 +45535,7 @@
         <v>53.40000000000042</v>
       </c>
       <c r="K883" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L883" t="n">
         <v>13.53999999999997</v>
@@ -45625,7 +45637,7 @@
         <v>53.50000000000043</v>
       </c>
       <c r="K885" t="n">
-        <v>49.99999999999911</v>
+        <v>0</v>
       </c>
       <c r="L885" t="n">
         <v>13.53999999999997</v>
@@ -45676,7 +45688,7 @@
         <v>53.60000000000043</v>
       </c>
       <c r="K886" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L886" t="n">
         <v>13.52999999999998</v>
@@ -45727,7 +45739,7 @@
         <v>53.70000000000043</v>
       </c>
       <c r="K887" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L887" t="n">
         <v>13.52999999999998</v>
@@ -45829,7 +45841,7 @@
         <v>53.90000000000043</v>
       </c>
       <c r="K889" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L889" t="n">
         <v>13.53999999999997</v>
@@ -45880,7 +45892,7 @@
         <v>54.00000000000043</v>
       </c>
       <c r="K890" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L890" t="n">
         <v>13.53999999999997</v>
@@ -45931,7 +45943,7 @@
         <v>54.00000000000043</v>
       </c>
       <c r="K891" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L891" t="n">
         <v>13.53999999999997</v>
@@ -45982,7 +45994,7 @@
         <v>54.10000000000043</v>
       </c>
       <c r="K892" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L892" t="n">
         <v>13.54999999999997</v>
@@ -46033,7 +46045,7 @@
         <v>54.20000000000044</v>
       </c>
       <c r="K893" t="n">
-        <v>-11.11111111111091</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L893" t="n">
         <v>13.54999999999997</v>
@@ -46084,7 +46096,7 @@
         <v>54.20000000000044</v>
       </c>
       <c r="K894" t="n">
-        <v>-11.11111111111091</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L894" t="n">
         <v>13.53999999999997</v>
@@ -46135,7 +46147,7 @@
         <v>54.30000000000044</v>
       </c>
       <c r="K895" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L895" t="n">
         <v>13.53999999999997</v>
@@ -46186,7 +46198,7 @@
         <v>54.40000000000044</v>
       </c>
       <c r="K896" t="n">
-        <v>-9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L896" t="n">
         <v>13.53999999999997</v>
@@ -46237,7 +46249,7 @@
         <v>54.50000000000044</v>
       </c>
       <c r="K897" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L897" t="n">
         <v>13.53999999999997</v>
@@ -46288,7 +46300,7 @@
         <v>54.60000000000044</v>
       </c>
       <c r="K898" t="n">
-        <v>16.66666666666637</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L898" t="n">
         <v>13.55999999999997</v>
@@ -46390,7 +46402,7 @@
         <v>54.90000000000044</v>
       </c>
       <c r="K900" t="n">
-        <v>6.666666666666579</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L900" t="n">
         <v>13.55999999999997</v>
@@ -46441,7 +46453,7 @@
         <v>54.90000000000044</v>
       </c>
       <c r="K901" t="n">
-        <v>6.666666666666579</v>
+        <v>0</v>
       </c>
       <c r="L901" t="n">
         <v>13.56999999999997</v>
@@ -46492,7 +46504,7 @@
         <v>54.90000000000044</v>
       </c>
       <c r="K902" t="n">
-        <v>6.666666666666579</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L902" t="n">
         <v>13.56999999999997</v>
@@ -46543,7 +46555,7 @@
         <v>54.90000000000044</v>
       </c>
       <c r="K903" t="n">
-        <v>6.666666666666579</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L903" t="n">
         <v>13.57999999999997</v>
@@ -46645,7 +46657,7 @@
         <v>54.90000000000044</v>
       </c>
       <c r="K905" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L905" t="n">
         <v>13.58999999999997</v>
@@ -46696,7 +46708,7 @@
         <v>55.00000000000044</v>
       </c>
       <c r="K906" t="n">
-        <v>14.28571428571411</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L906" t="n">
         <v>13.60999999999997</v>
@@ -46747,7 +46759,7 @@
         <v>55.00000000000044</v>
       </c>
       <c r="K907" t="n">
-        <v>7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L907" t="n">
         <v>13.61999999999997</v>
@@ -46798,7 +46810,7 @@
         <v>55.10000000000044</v>
       </c>
       <c r="K908" t="n">
-        <v>7.692307692307598</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L908" t="n">
         <v>13.60999999999997</v>
@@ -46849,7 +46861,7 @@
         <v>55.20000000000044</v>
       </c>
       <c r="K909" t="n">
-        <v>-7.692307692307598</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L909" t="n">
         <v>13.60999999999997</v>
@@ -46900,7 +46912,7 @@
         <v>55.20000000000044</v>
       </c>
       <c r="K910" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L910" t="n">
         <v>13.59999999999997</v>
@@ -46951,7 +46963,7 @@
         <v>55.40000000000045</v>
       </c>
       <c r="K911" t="n">
-        <v>14.28571428571411</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L911" t="n">
         <v>13.60999999999997</v>
@@ -47053,7 +47065,7 @@
         <v>55.50000000000045</v>
       </c>
       <c r="K913" t="n">
-        <v>7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L913" t="n">
         <v>13.60999999999997</v>
@@ -47104,7 +47116,7 @@
         <v>55.60000000000045</v>
       </c>
       <c r="K914" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L914" t="n">
         <v>13.59999999999997</v>
@@ -47155,7 +47167,7 @@
         <v>55.60000000000045</v>
       </c>
       <c r="K915" t="n">
-        <v>-7.692307692307598</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L915" t="n">
         <v>13.58999999999997</v>
@@ -47206,7 +47218,7 @@
         <v>55.60000000000045</v>
       </c>
       <c r="K916" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L916" t="n">
         <v>13.56999999999997</v>
@@ -47308,7 +47320,7 @@
         <v>55.70000000000045</v>
       </c>
       <c r="K918" t="n">
-        <v>-9.090909090908989</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L918" t="n">
         <v>13.55999999999997</v>
@@ -47410,7 +47422,7 @@
         <v>55.80000000000045</v>
       </c>
       <c r="K920" t="n">
-        <v>-11.11111111111091</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L920" t="n">
         <v>13.55999999999997</v>
@@ -47461,7 +47473,7 @@
         <v>55.80000000000045</v>
       </c>
       <c r="K921" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L921" t="n">
         <v>13.53999999999997</v>
@@ -47563,7 +47575,7 @@
         <v>56.00000000000045</v>
       </c>
       <c r="K923" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L923" t="n">
         <v>13.52999999999998</v>
@@ -47614,7 +47626,7 @@
         <v>56.10000000000046</v>
       </c>
       <c r="K924" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L924" t="n">
         <v>13.53999999999997</v>
@@ -47665,7 +47677,7 @@
         <v>56.20000000000046</v>
       </c>
       <c r="K925" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L925" t="n">
         <v>13.53999999999997</v>
@@ -47716,7 +47728,7 @@
         <v>56.20000000000046</v>
       </c>
       <c r="K926" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L926" t="n">
         <v>13.53999999999997</v>
@@ -47767,7 +47779,7 @@
         <v>56.20000000000046</v>
       </c>
       <c r="K927" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L927" t="n">
         <v>13.52999999999998</v>
@@ -47818,7 +47830,7 @@
         <v>56.20000000000046</v>
       </c>
       <c r="K928" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L928" t="n">
         <v>13.51999999999998</v>
@@ -47869,7 +47881,7 @@
         <v>56.30000000000046</v>
       </c>
       <c r="K929" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L929" t="n">
         <v>13.50999999999998</v>
@@ -48073,7 +48085,7 @@
         <v>56.50000000000046</v>
       </c>
       <c r="K933" t="n">
-        <v>-19.99999999999964</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L933" t="n">
         <v>13.47999999999998</v>
@@ -48277,7 +48289,7 @@
         <v>56.60000000000046</v>
       </c>
       <c r="K937" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L937" t="n">
         <v>13.46999999999998</v>
@@ -48328,7 +48340,7 @@
         <v>56.60000000000046</v>
       </c>
       <c r="K938" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L938" t="n">
         <v>13.46999999999998</v>
@@ -48481,7 +48493,7 @@
         <v>56.60000000000046</v>
       </c>
       <c r="K941" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L941" t="n">
         <v>13.47999999999998</v>
@@ -48532,7 +48544,7 @@
         <v>56.60000000000046</v>
       </c>
       <c r="K942" t="n">
-        <v>-14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L942" t="n">
         <v>13.48999999999998</v>
@@ -48582,9 +48594,7 @@
       <c r="J943" t="n">
         <v>56.60000000000046</v>
       </c>
-      <c r="K943" t="n">
-        <v>0</v>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>13.49999999999998</v>
       </c>
@@ -48633,9 +48643,7 @@
       <c r="J944" t="n">
         <v>56.60000000000046</v>
       </c>
-      <c r="K944" t="n">
-        <v>-19.99999999999964</v>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>13.49999999999998</v>
       </c>
@@ -48684,9 +48692,7 @@
       <c r="J945" t="n">
         <v>56.60000000000046</v>
       </c>
-      <c r="K945" t="n">
-        <v>0</v>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>13.49999999999998</v>
       </c>
@@ -48736,7 +48742,7 @@
         <v>56.70000000000046</v>
       </c>
       <c r="K946" t="n">
-        <v>-19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L946" t="n">
         <v>13.48999999999998</v>
@@ -48889,7 +48895,7 @@
         <v>56.80000000000047</v>
       </c>
       <c r="K949" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L949" t="n">
         <v>13.48999999999998</v>
@@ -48940,7 +48946,7 @@
         <v>56.90000000000047</v>
       </c>
       <c r="K950" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L950" t="n">
         <v>13.49999999999998</v>
@@ -49042,7 +49048,7 @@
         <v>57.10000000000047</v>
       </c>
       <c r="K952" t="n">
-        <v>33.33333333333275</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L952" t="n">
         <v>13.50999999999998</v>
@@ -49093,7 +49099,7 @@
         <v>57.10000000000047</v>
       </c>
       <c r="K953" t="n">
-        <v>33.33333333333275</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L953" t="n">
         <v>13.51999999999998</v>
@@ -49195,7 +49201,7 @@
         <v>57.10000000000047</v>
       </c>
       <c r="K955" t="n">
-        <v>19.99999999999964</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L955" t="n">
         <v>13.53999999999997</v>
@@ -49399,7 +49405,7 @@
         <v>57.20000000000047</v>
       </c>
       <c r="K959" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L959" t="n">
         <v>13.54999999999997</v>
@@ -49501,7 +49507,7 @@
         <v>57.20000000000047</v>
       </c>
       <c r="K961" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L961" t="n">
         <v>13.53999999999997</v>
@@ -49552,7 +49558,7 @@
         <v>57.30000000000047</v>
       </c>
       <c r="K962" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L962" t="n">
         <v>13.53999999999997</v>
@@ -49603,7 +49609,7 @@
         <v>57.40000000000047</v>
       </c>
       <c r="K963" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L963" t="n">
         <v>13.52999999999998</v>
@@ -49654,7 +49660,7 @@
         <v>57.50000000000048</v>
       </c>
       <c r="K964" t="n">
-        <v>-11.11111111111091</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L964" t="n">
         <v>13.50999999999998</v>
@@ -49756,7 +49762,7 @@
         <v>57.60000000000048</v>
       </c>
       <c r="K966" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L966" t="n">
         <v>13.49999999999998</v>
@@ -49909,7 +49915,7 @@
         <v>57.70000000000048</v>
       </c>
       <c r="K969" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L969" t="n">
         <v>13.50999999999998</v>
@@ -49960,7 +49966,7 @@
         <v>57.70000000000048</v>
       </c>
       <c r="K970" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L970" t="n">
         <v>13.51999999999998</v>
@@ -50011,7 +50017,7 @@
         <v>57.90000000000047</v>
       </c>
       <c r="K971" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L971" t="n">
         <v>13.50999999999998</v>
@@ -50062,7 +50068,7 @@
         <v>57.90000000000047</v>
       </c>
       <c r="K972" t="n">
-        <v>-24.99999999999978</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L972" t="n">
         <v>13.48999999999998</v>
@@ -50113,7 +50119,7 @@
         <v>57.90000000000047</v>
       </c>
       <c r="K973" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L973" t="n">
         <v>13.47999999999998</v>
@@ -50164,7 +50170,7 @@
         <v>58.00000000000048</v>
       </c>
       <c r="K974" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L974" t="n">
         <v>13.48999999999998</v>
@@ -50215,7 +50221,7 @@
         <v>58.10000000000048</v>
       </c>
       <c r="K975" t="n">
-        <v>-19.99999999999979</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L975" t="n">
         <v>13.47999999999998</v>
@@ -50266,7 +50272,7 @@
         <v>58.10000000000048</v>
       </c>
       <c r="K976" t="n">
-        <v>-11.111111111111</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L976" t="n">
         <v>13.46999999999998</v>
@@ -50368,7 +50374,7 @@
         <v>58.20000000000048</v>
       </c>
       <c r="K978" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L978" t="n">
         <v>13.46999999999998</v>
@@ -50419,7 +50425,7 @@
         <v>58.30000000000048</v>
       </c>
       <c r="K979" t="n">
-        <v>-9.090909090908989</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L979" t="n">
         <v>13.44999999999998</v>
@@ -50470,7 +50476,7 @@
         <v>58.40000000000048</v>
       </c>
       <c r="K980" t="n">
-        <v>-16.66666666666647</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L980" t="n">
         <v>13.41999999999998</v>
@@ -50521,7 +50527,7 @@
         <v>58.50000000000048</v>
       </c>
       <c r="K981" t="n">
-        <v>-23.07692307692293</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L981" t="n">
         <v>13.39999999999998</v>
@@ -50572,7 +50578,7 @@
         <v>58.70000000000049</v>
       </c>
       <c r="K982" t="n">
-        <v>-14.28571428571411</v>
+        <v>0</v>
       </c>
       <c r="L982" t="n">
         <v>13.39999999999998</v>
@@ -50623,7 +50629,7 @@
         <v>58.70000000000049</v>
       </c>
       <c r="K983" t="n">
-        <v>-7.692307692307598</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L983" t="n">
         <v>13.39999999999998</v>
@@ -50725,7 +50731,7 @@
         <v>58.80000000000049</v>
       </c>
       <c r="K985" t="n">
-        <v>-16.66666666666647</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L985" t="n">
         <v>13.37999999999998</v>
@@ -50776,7 +50782,7 @@
         <v>58.80000000000049</v>
       </c>
       <c r="K986" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L986" t="n">
         <v>13.36999999999998</v>
@@ -50827,7 +50833,7 @@
         <v>58.90000000000049</v>
       </c>
       <c r="K987" t="n">
-        <v>-23.07692307692293</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L987" t="n">
         <v>13.33999999999998</v>
@@ -50878,7 +50884,7 @@
         <v>59.00000000000049</v>
       </c>
       <c r="K988" t="n">
-        <v>-14.28571428571411</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L988" t="n">
         <v>13.31999999999998</v>
@@ -50929,7 +50935,7 @@
         <v>59.00000000000049</v>
       </c>
       <c r="K989" t="n">
-        <v>-23.07692307692279</v>
+        <v>0</v>
       </c>
       <c r="L989" t="n">
         <v>13.30999999999998</v>

--- a/BackTest/2019-10-25 BackTest FNB.xlsx
+++ b/BackTest/2019-10-25 BackTest FNB.xlsx
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -12596,61 +12596,55 @@
         <v>13.02999999999999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
+      <c r="L349" t="inlineStr"/>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C350" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D350" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>165317.5227</v>
+      </c>
+      <c r="G350" t="n">
+        <v>13.01999999999999</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C350" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D350" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E350" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F350" t="n">
-        <v>165317.5227</v>
-      </c>
-      <c r="G350" t="n">
-        <v>13.01999999999999</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12678,14 +12672,12 @@
         <v>13.00833333333333</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -12848,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
@@ -12924,14 +12916,12 @@
         <v>12.935</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -12965,14 +12955,12 @@
         <v>12.92833333333333</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13006,14 +12994,12 @@
         <v>12.92333333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13047,14 +13033,12 @@
         <v>12.91333333333333</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13088,14 +13072,12 @@
         <v>12.905</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13129,14 +13111,12 @@
         <v>12.89833333333333</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13170,14 +13150,12 @@
         <v>12.89</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13211,14 +13189,12 @@
         <v>12.88</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13252,14 +13228,12 @@
         <v>12.86833333333333</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13293,14 +13267,12 @@
         <v>12.85833333333333</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13334,14 +13306,12 @@
         <v>12.85</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13375,14 +13345,12 @@
         <v>12.84833333333333</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13416,14 +13384,12 @@
         <v>12.84166666666667</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13457,14 +13423,12 @@
         <v>12.83166666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13498,14 +13462,12 @@
         <v>12.82666666666667</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13539,14 +13501,12 @@
         <v>12.82</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13580,14 +13540,12 @@
         <v>12.81333333333334</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13621,14 +13579,12 @@
         <v>12.80666666666667</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -13662,14 +13618,12 @@
         <v>12.80166666666667</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -13703,14 +13657,12 @@
         <v>12.79333333333334</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -13744,14 +13696,12 @@
         <v>12.78666666666667</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -13785,14 +13735,12 @@
         <v>12.78</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -13826,14 +13774,12 @@
         <v>12.77166666666667</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -13867,14 +13813,12 @@
         <v>12.76500000000001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -13908,14 +13852,12 @@
         <v>12.75833333333334</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -13949,14 +13891,12 @@
         <v>12.75333333333334</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -13990,14 +13930,12 @@
         <v>12.75000000000001</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14031,14 +13969,12 @@
         <v>12.74500000000001</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14072,14 +14008,12 @@
         <v>12.74166666666667</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14113,14 +14047,12 @@
         <v>12.73833333333334</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14154,14 +14086,12 @@
         <v>12.73166666666668</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14195,14 +14125,12 @@
         <v>12.72666666666668</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14236,14 +14164,12 @@
         <v>12.72166666666667</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14277,14 +14203,12 @@
         <v>12.71833333333334</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14318,14 +14242,12 @@
         <v>12.71500000000001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14359,14 +14281,12 @@
         <v>12.71000000000001</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14400,14 +14320,12 @@
         <v>12.70833333333334</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14441,14 +14359,12 @@
         <v>12.70500000000001</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14482,14 +14398,12 @@
         <v>12.70333333333334</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -14523,14 +14437,12 @@
         <v>12.70000000000001</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -14564,14 +14476,12 @@
         <v>12.69833333333334</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -14605,14 +14515,12 @@
         <v>12.69833333333334</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
@@ -14646,14 +14554,12 @@
         <v>12.70333333333334</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
@@ -14687,14 +14593,12 @@
         <v>12.70500000000001</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
@@ -14728,14 +14632,12 @@
         <v>12.70833333333334</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
@@ -15276,14 +15178,12 @@
         <v>12.74833333333333</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -15317,14 +15217,12 @@
         <v>12.74833333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -15358,14 +15256,12 @@
         <v>12.74833333333333</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -15399,14 +15295,12 @@
         <v>12.74666666666667</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -15440,14 +15334,12 @@
         <v>12.74666666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -15481,14 +15373,12 @@
         <v>12.75</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -15522,14 +15412,12 @@
         <v>12.75333333333333</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -15563,14 +15451,12 @@
         <v>12.75333333333333</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
@@ -15604,14 +15490,12 @@
         <v>12.75333333333333</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
@@ -15645,14 +15529,12 @@
         <v>12.75666666666667</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -15686,14 +15568,12 @@
         <v>12.76166666666666</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -15727,14 +15607,12 @@
         <v>12.765</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -15768,14 +15646,12 @@
         <v>12.76833333333333</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -15809,14 +15685,12 @@
         <v>12.77166666666666</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -16435,14 +16309,12 @@
         <v>12.80999999999998</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
@@ -16476,14 +16348,12 @@
         <v>12.80833333333332</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
@@ -16517,14 +16387,12 @@
         <v>12.80666666666665</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
@@ -16558,14 +16426,12 @@
         <v>12.80499999999998</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
@@ -16599,14 +16465,12 @@
         <v>12.80166666666665</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
@@ -16640,14 +16504,12 @@
         <v>12.79999999999998</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
@@ -16681,14 +16543,12 @@
         <v>12.79833333333332</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
@@ -16722,14 +16582,12 @@
         <v>12.79833333333332</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -16810,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
@@ -16927,14 +16785,12 @@
         <v>12.79166666666666</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
@@ -16968,14 +16824,12 @@
         <v>12.79166666666666</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
@@ -17009,14 +16863,12 @@
         <v>12.79166666666666</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
@@ -17050,14 +16902,12 @@
         <v>12.78999999999999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -17091,14 +16941,12 @@
         <v>12.78833333333332</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -17132,14 +16980,12 @@
         <v>12.78666666666665</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
@@ -17173,14 +17019,12 @@
         <v>12.78499999999999</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -17214,14 +17058,12 @@
         <v>12.78333333333332</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
@@ -17255,14 +17097,12 @@
         <v>12.78166666666666</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
@@ -17296,14 +17136,12 @@
         <v>12.77999999999999</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
@@ -17337,14 +17175,12 @@
         <v>12.77833333333332</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
@@ -17378,14 +17214,12 @@
         <v>12.77666666666665</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
@@ -17419,14 +17253,12 @@
         <v>12.77499999999999</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
@@ -17460,14 +17292,12 @@
         <v>12.77333333333332</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
@@ -17501,14 +17331,12 @@
         <v>12.77166666666665</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
@@ -17542,14 +17370,12 @@
         <v>12.77166666666665</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
@@ -17583,14 +17409,12 @@
         <v>12.77333333333332</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
@@ -17624,14 +17448,12 @@
         <v>12.77333333333332</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
@@ -17665,14 +17487,12 @@
         <v>12.77499999999998</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
@@ -17706,14 +17526,12 @@
         <v>12.77666666666665</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
@@ -17747,14 +17565,12 @@
         <v>12.77833333333331</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
@@ -17788,14 +17604,12 @@
         <v>12.77999999999998</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
@@ -17829,14 +17643,12 @@
         <v>12.78166666666664</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
@@ -17870,14 +17682,12 @@
         <v>12.77999999999998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
@@ -17911,14 +17721,12 @@
         <v>12.77999999999998</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
@@ -17952,14 +17760,12 @@
         <v>12.77833333333331</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
@@ -17993,14 +17799,12 @@
         <v>12.77833333333331</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
@@ -18034,14 +17838,12 @@
         <v>12.77833333333331</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
@@ -18075,14 +17877,12 @@
         <v>12.77666666666665</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
@@ -18116,14 +17916,12 @@
         <v>12.77499999999998</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
@@ -18157,14 +17955,12 @@
         <v>12.77333333333331</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
@@ -18198,14 +17994,12 @@
         <v>12.77166666666665</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
@@ -18239,14 +18033,12 @@
         <v>12.76999999999998</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
@@ -18280,14 +18072,12 @@
         <v>12.76833333333331</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
@@ -18321,14 +18111,12 @@
         <v>12.76666666666664</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
@@ -18362,14 +18150,12 @@
         <v>12.76499999999998</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
@@ -18403,14 +18189,12 @@
         <v>12.76333333333331</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
@@ -18444,14 +18228,12 @@
         <v>12.76166666666664</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
@@ -18485,14 +18267,12 @@
         <v>12.76166666666664</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
@@ -18526,14 +18306,12 @@
         <v>12.75999999999997</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
@@ -18567,14 +18345,12 @@
         <v>12.75999999999997</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
@@ -18608,14 +18384,12 @@
         <v>12.75999999999997</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
@@ -18649,14 +18423,12 @@
         <v>12.75999999999997</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
@@ -18690,14 +18462,12 @@
         <v>12.75833333333331</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
@@ -18731,14 +18501,12 @@
         <v>12.75999999999997</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
@@ -18772,14 +18540,12 @@
         <v>12.76166666666664</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
@@ -20646,14 +20412,12 @@
         <v>12.87166666666664</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
@@ -20687,14 +20451,12 @@
         <v>12.86999999999997</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
@@ -20728,14 +20490,12 @@
         <v>12.86999999999997</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
@@ -20769,14 +20529,12 @@
         <v>12.86999999999997</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
@@ -20810,14 +20568,12 @@
         <v>12.86999999999997</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
@@ -20851,14 +20607,12 @@
         <v>12.86833333333331</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
@@ -20892,14 +20646,12 @@
         <v>12.86666666666664</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
@@ -20933,14 +20685,12 @@
         <v>12.86666666666664</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
@@ -20974,14 +20724,12 @@
         <v>12.86666666666664</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
@@ -21015,14 +20763,12 @@
         <v>12.86499999999998</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
@@ -21056,14 +20802,12 @@
         <v>12.86666666666664</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -21097,14 +20841,12 @@
         <v>12.86666666666664</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -26211,18 +25953,16 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M691" t="n">
-        <v>1</v>
-      </c>
+      <c r="M691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -26254,11 +25994,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26293,11 +26029,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26332,11 +26064,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26371,11 +26099,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26410,11 +26134,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26449,11 +26169,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26204,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26527,11 +26239,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26566,11 +26274,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26605,11 +26309,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26644,11 +26344,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26683,11 +26379,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26722,11 +26414,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26761,11 +26449,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26800,11 +26484,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26839,11 +26519,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26878,11 +26554,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +26589,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26956,11 +26624,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26995,11 +26659,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27034,11 +26694,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27073,11 +26729,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27112,11 +26764,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27151,11 +26799,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27190,11 +26834,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27229,11 +26869,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27268,11 +26904,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27307,11 +26939,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27346,11 +26974,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27385,11 +27009,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27424,11 +27044,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27463,11 +27079,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27502,11 +27114,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27149,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27580,11 +27184,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27619,11 +27219,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27658,11 +27254,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27697,11 +27289,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27736,11 +27324,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +27359,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27814,11 +27394,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27853,11 +27429,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27892,11 +27464,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27931,11 +27499,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -27970,11 +27534,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28009,11 +27569,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28048,11 +27604,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28087,11 +27639,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28126,11 +27674,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28165,11 +27709,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +27744,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28243,11 +27779,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28282,11 +27814,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28321,11 +27849,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28360,11 +27884,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28399,11 +27919,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28438,11 +27954,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28477,11 +27989,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28516,11 +28024,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28555,11 +28059,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28594,11 +28094,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28129,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28672,11 +28164,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L754" t="inlineStr"/>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28711,11 +28199,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28750,11 +28234,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L756" t="inlineStr"/>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28789,11 +28269,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L757" t="inlineStr"/>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28828,11 +28304,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L758" t="inlineStr"/>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28867,11 +28339,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L759" t="inlineStr"/>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28906,11 +28374,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L760" t="inlineStr"/>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28945,11 +28409,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L761" t="inlineStr"/>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -28984,11 +28444,7 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L762" t="inlineStr"/>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -29023,11 +28479,7 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L763" t="inlineStr"/>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +28514,7 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L764" t="inlineStr"/>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29101,11 +28549,7 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L765" t="inlineStr"/>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29140,11 +28584,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L766" t="inlineStr"/>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29179,11 +28619,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L767" t="inlineStr"/>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29218,11 +28654,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L768" t="inlineStr"/>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29257,11 +28689,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L769" t="inlineStr"/>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29296,11 +28724,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L770" t="inlineStr"/>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29335,11 +28759,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L771" t="inlineStr"/>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29374,11 +28794,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L772" t="inlineStr"/>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29413,11 +28829,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L773" t="inlineStr"/>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29452,11 +28864,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L774" t="inlineStr"/>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +28899,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L775" t="inlineStr"/>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29530,11 +28934,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L776" t="inlineStr"/>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29569,11 +28969,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L777" t="inlineStr"/>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29608,11 +29004,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L778" t="inlineStr"/>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29647,11 +29039,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L779" t="inlineStr"/>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29686,11 +29074,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L780" t="inlineStr"/>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29725,11 +29109,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L781" t="inlineStr"/>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29764,11 +29144,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L782" t="inlineStr"/>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29803,11 +29179,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L783" t="inlineStr"/>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29842,11 +29214,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L784" t="inlineStr"/>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29881,11 +29249,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L785" t="inlineStr"/>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +29284,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -29959,11 +29319,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L787" t="inlineStr"/>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -29998,11 +29354,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L788" t="inlineStr"/>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -30037,11 +29389,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -30076,11 +29424,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L790" t="inlineStr"/>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -30115,11 +29459,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L791" t="inlineStr"/>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -30154,11 +29494,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L792" t="inlineStr"/>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -30193,11 +29529,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L793" t="inlineStr"/>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -30232,11 +29564,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L794" t="inlineStr"/>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -30271,11 +29599,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L795" t="inlineStr"/>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -30310,11 +29634,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L796" t="inlineStr"/>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +29669,7 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L797" t="inlineStr"/>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -30388,11 +29704,7 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -30427,11 +29739,7 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -30466,11 +29774,7 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L800" t="inlineStr"/>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -30505,11 +29809,7 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L801" t="inlineStr"/>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -30544,11 +29844,7 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L802" t="inlineStr"/>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -30583,11 +29879,7 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L803" t="inlineStr"/>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -30622,11 +29914,7 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L804" t="inlineStr"/>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30661,11 +29949,7 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L805" t="inlineStr"/>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30700,11 +29984,7 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L806" t="inlineStr"/>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30739,11 +30019,7 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L807" t="inlineStr"/>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30778,11 +30054,7 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L808" t="inlineStr"/>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30817,11 +30089,7 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L809" t="inlineStr"/>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30856,11 +30124,7 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L810" t="inlineStr"/>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30895,11 +30159,7 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L811" t="inlineStr"/>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30934,11 +30194,7 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L812" t="inlineStr"/>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -30973,11 +30229,7 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L813" t="inlineStr"/>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -31012,11 +30264,7 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L814" t="inlineStr"/>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -31051,11 +30299,7 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L815" t="inlineStr"/>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -31090,11 +30334,7 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L816" t="inlineStr"/>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -31129,11 +30369,7 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L817" t="inlineStr"/>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -31168,11 +30404,7 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L818" t="inlineStr"/>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -31207,11 +30439,7 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L819" t="inlineStr"/>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -31246,11 +30474,7 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L820" t="inlineStr"/>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -31285,11 +30509,7 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L821" t="inlineStr"/>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -31324,11 +30544,7 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L822" t="inlineStr"/>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -31363,11 +30579,7 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L823" t="inlineStr"/>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -31402,11 +30614,7 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L824" t="inlineStr"/>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -31441,11 +30649,7 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L825" t="inlineStr"/>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -31480,11 +30684,7 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L826" t="inlineStr"/>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -31519,11 +30719,7 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L827" t="inlineStr"/>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -31558,11 +30754,7 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L828" t="inlineStr"/>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -31597,11 +30789,7 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L829" t="inlineStr"/>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +30824,7 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L830" t="inlineStr"/>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -31675,11 +30859,7 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L831" t="inlineStr"/>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -31714,11 +30894,7 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L832" t="inlineStr"/>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -31753,11 +30929,7 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L833" t="inlineStr"/>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -31792,11 +30964,7 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L834" t="inlineStr"/>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -31831,11 +30999,7 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L835" t="inlineStr"/>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -31870,11 +31034,7 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -31909,11 +31069,7 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -31948,11 +31104,7 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -31987,11 +31139,7 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -32026,11 +31174,7 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -32065,11 +31209,7 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -32104,11 +31244,7 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -32143,11 +31279,7 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -32182,11 +31314,7 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -32221,11 +31349,7 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -32260,11 +31384,7 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -32299,11 +31419,7 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -32338,11 +31454,7 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -32377,11 +31489,7 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L849" t="inlineStr"/>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -32416,11 +31524,7 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L850" t="inlineStr"/>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -32455,11 +31559,7 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -32494,11 +31594,7 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L852" t="inlineStr"/>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -32533,11 +31629,7 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L853" t="inlineStr"/>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -32572,11 +31664,7 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -32611,11 +31699,7 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L855" t="inlineStr"/>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -32650,11 +31734,7 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L856" t="inlineStr"/>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -32689,11 +31769,7 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L857" t="inlineStr"/>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -32728,11 +31804,7 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L858" t="inlineStr"/>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -32767,11 +31839,7 @@
       </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L859" t="inlineStr"/>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -32806,11 +31874,7 @@
       </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L860" t="inlineStr"/>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -32845,11 +31909,7 @@
       </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L861" t="inlineStr"/>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -32884,11 +31944,7 @@
       </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L862" t="inlineStr"/>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -32923,11 +31979,7 @@
       </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L863" t="inlineStr"/>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -32962,11 +32014,7 @@
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L864" t="inlineStr"/>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -33001,11 +32049,7 @@
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L865" t="inlineStr"/>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -33040,11 +32084,7 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L866" t="inlineStr"/>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -33079,11 +32119,7 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L867" t="inlineStr"/>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -33118,11 +32154,7 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -33157,11 +32189,7 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -33196,11 +32224,7 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -33235,11 +32259,7 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -33274,11 +32294,7 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -33313,11 +32329,7 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -33352,11 +32364,7 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -33391,11 +32399,7 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -33430,11 +32434,7 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L876" t="inlineStr"/>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -33469,11 +32469,7 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L877" t="inlineStr"/>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -33508,11 +32504,7 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L878" t="inlineStr"/>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -33547,11 +32539,7 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -33586,11 +32574,7 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L880" t="inlineStr"/>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -33625,11 +32609,7 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L881" t="inlineStr"/>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -33664,11 +32644,7 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -33703,11 +32679,7 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L883" t="inlineStr"/>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -33742,11 +32714,7 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L884" t="inlineStr"/>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -33781,11 +32749,7 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -33820,11 +32784,7 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -33859,11 +32819,7 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L887" t="inlineStr"/>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -33898,11 +32854,7 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L888" t="inlineStr"/>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -33937,11 +32889,7 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L889" t="inlineStr"/>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -33976,11 +32924,7 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -34015,11 +32959,7 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L891" t="inlineStr"/>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -34054,11 +32994,7 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L892" t="inlineStr"/>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -34093,11 +33029,7 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L893" t="inlineStr"/>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -34132,11 +33064,7 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -34171,11 +33099,7 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L895" t="inlineStr"/>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +33134,7 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L896" t="inlineStr"/>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -34249,11 +33169,7 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L897" t="inlineStr"/>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -34288,11 +33204,7 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L898" t="inlineStr"/>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -34327,11 +33239,7 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L899" t="inlineStr"/>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -34366,11 +33274,7 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L900" t="inlineStr"/>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -34405,11 +33309,7 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L901" t="inlineStr"/>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -34444,11 +33344,7 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L902" t="inlineStr"/>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -34483,11 +33379,7 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -34522,11 +33414,7 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L904" t="inlineStr"/>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -34561,11 +33449,7 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L905" t="inlineStr"/>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -34600,11 +33484,7 @@
       </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L906" t="inlineStr"/>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -34639,11 +33519,7 @@
       </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L907" t="inlineStr"/>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -34678,11 +33554,7 @@
       </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L908" t="inlineStr"/>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -34717,11 +33589,7 @@
       </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L909" t="inlineStr"/>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -34756,11 +33624,7 @@
       </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L910" t="inlineStr"/>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -34795,11 +33659,7 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L911" t="inlineStr"/>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -34834,11 +33694,7 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L912" t="inlineStr"/>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -34873,11 +33729,7 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L913" t="inlineStr"/>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -34912,11 +33764,7 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L914" t="inlineStr"/>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -34951,11 +33799,7 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L915" t="inlineStr"/>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -34990,11 +33834,7 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L916" t="inlineStr"/>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -35029,11 +33869,7 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L917" t="inlineStr"/>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -35068,11 +33904,7 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L918" t="inlineStr"/>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -35107,11 +33939,7 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L919" t="inlineStr"/>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -35146,11 +33974,7 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L920" t="inlineStr"/>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -35185,11 +34009,7 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L921" t="inlineStr"/>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -35224,11 +34044,7 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L922" t="inlineStr"/>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -35263,11 +34079,7 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L923" t="inlineStr"/>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -35302,11 +34114,7 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L924" t="inlineStr"/>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -35341,11 +34149,7 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L925" t="inlineStr"/>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -35380,11 +34184,7 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L926" t="inlineStr"/>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -35419,11 +34219,7 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L927" t="inlineStr"/>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -35458,11 +34254,7 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L928" t="inlineStr"/>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +34289,7 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L929" t="inlineStr"/>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -35536,11 +34324,7 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L930" t="inlineStr"/>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -35575,11 +34359,7 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L931" t="inlineStr"/>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -35614,11 +34394,7 @@
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L932" t="inlineStr"/>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -35653,11 +34429,7 @@
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
-      <c r="L933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L933" t="inlineStr"/>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -35692,11 +34464,7 @@
       </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L934" t="inlineStr"/>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -35731,11 +34499,7 @@
       </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L935" t="inlineStr"/>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -35770,11 +34534,7 @@
       </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L936" t="inlineStr"/>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -35809,11 +34569,7 @@
       </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L937" t="inlineStr"/>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -35848,11 +34604,7 @@
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L938" t="inlineStr"/>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -35887,11 +34639,7 @@
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L939" t="inlineStr"/>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -35926,11 +34674,7 @@
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L940" t="inlineStr"/>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -35965,11 +34709,7 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L941" t="inlineStr"/>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -36004,11 +34744,7 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L942" t="inlineStr"/>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -36043,11 +34779,7 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L943" t="inlineStr"/>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -36082,11 +34814,7 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L944" t="inlineStr"/>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -36121,11 +34849,7 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L945" t="inlineStr"/>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -36160,11 +34884,7 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L946" t="inlineStr"/>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -36199,11 +34919,7 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L947" t="inlineStr"/>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -36238,11 +34954,7 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L948" t="inlineStr"/>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -36277,11 +34989,7 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L949" t="inlineStr"/>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -36316,11 +35024,7 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L950" t="inlineStr"/>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -36355,11 +35059,7 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L951" t="inlineStr"/>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -36394,11 +35094,7 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L952" t="inlineStr"/>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -36433,11 +35129,7 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L953" t="inlineStr"/>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -36472,11 +35164,7 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L954" t="inlineStr"/>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -36511,11 +35199,7 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L955" t="inlineStr"/>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -36550,11 +35234,7 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L956" t="inlineStr"/>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -36589,11 +35269,7 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L957" t="inlineStr"/>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -36628,11 +35304,7 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L958" t="inlineStr"/>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -36667,11 +35339,7 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L959" t="inlineStr"/>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -36706,11 +35374,7 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L960" t="inlineStr"/>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -36745,11 +35409,7 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L961" t="inlineStr"/>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -36784,11 +35444,7 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L962" t="inlineStr"/>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -36823,11 +35479,7 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L963" t="inlineStr"/>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -36862,11 +35514,7 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -36901,11 +35549,7 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L965" t="inlineStr"/>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -36940,11 +35584,7 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L966" t="inlineStr"/>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -36979,11 +35619,7 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L967" t="inlineStr"/>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -37018,11 +35654,7 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L968" t="inlineStr"/>
       <c r="M968" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest FNB.xlsx
+++ b/BackTest/2019-10-25 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-593127.5047555559</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>12.6</v>
@@ -523,7 +523,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12.5</v>
@@ -562,7 +562,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>12.5</v>
@@ -601,7 +601,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>12.5</v>
@@ -640,7 +640,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12.5</v>
@@ -679,7 +679,7 @@
         <v>-838890.8251555559</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>12.5</v>
@@ -718,7 +718,7 @@
         <v>-804518.9505555559</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>12.4</v>
@@ -757,7 +757,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>12.5</v>
@@ -796,7 +796,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>12.4</v>
@@ -835,7 +835,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>12.4</v>
@@ -874,7 +874,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>12.5</v>
@@ -913,7 +913,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>12.5</v>
@@ -952,7 +952,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>12.5</v>
@@ -991,7 +991,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>12.5</v>
@@ -1030,7 +1030,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>12.5</v>
@@ -1069,7 +1069,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>12.5</v>
@@ -1108,7 +1108,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>12.5</v>
@@ -1147,7 +1147,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
@@ -1186,7 +1186,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>12.7</v>
@@ -1225,7 +1225,7 @@
         <v>-1051991.737455556</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>12.7</v>
@@ -1264,7 +1264,7 @@
         <v>-957854.349755556</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>12.5</v>
@@ -1340,7 +1340,7 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>12.5</v>
@@ -1379,7 +1379,7 @@
         <v>-957843.349755556</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>12.5</v>
@@ -1418,7 +1418,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>12.6</v>
@@ -1457,7 +1457,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>12.5</v>
@@ -1496,7 +1496,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>12.5</v>
@@ -1535,7 +1535,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>12.5</v>
@@ -1574,7 +1574,7 @@
         <v>-1082527.556155556</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
@@ -1613,7 +1613,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>12.6</v>
@@ -1652,7 +1652,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>12.5</v>
@@ -1691,7 +1691,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>12.5</v>
@@ -1730,7 +1730,7 @@
         <v>-545391.332355556</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>12.5</v>
@@ -1769,7 +1769,7 @@
         <v>-555391.332355556</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>12.7</v>
@@ -1808,9 +1808,11 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2955,7 +2957,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3029,7 +3031,7 @@
         <v>14960441.73107724</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3103,7 +3105,7 @@
         <v>15356531.07847724</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3177,7 +3179,7 @@
         <v>16184600.50847724</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3214,18 +3216,16 @@
         <v>16184600.50847724</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3251,15 +3251,11 @@
         <v>16184600.50847724</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3288,15 +3284,11 @@
         <v>16053380.82557724</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3325,15 +3317,11 @@
         <v>15193753.80897724</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3362,15 +3350,11 @@
         <v>15461062.07567724</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3399,15 +3383,11 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3436,15 +3416,11 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3473,15 +3449,11 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3510,15 +3482,11 @@
         <v>14720724.17097724</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3547,15 +3515,11 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3584,15 +3548,11 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3621,15 +3581,11 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3658,15 +3614,11 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3695,15 +3647,11 @@
         <v>14400790.28277724</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3732,15 +3680,11 @@
         <v>14028799.27927724</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3769,15 +3713,11 @@
         <v>14207739.75057724</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3806,15 +3746,11 @@
         <v>14142551.16857724</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3843,15 +3779,11 @@
         <v>14142551.16857724</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3880,15 +3812,11 @@
         <v>12821224.64117724</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3917,15 +3845,11 @@
         <v>12821244.64117724</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3954,15 +3878,11 @@
         <v>12471211.16637724</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3991,15 +3911,11 @@
         <v>12469798.90067724</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4028,15 +3944,11 @@
         <v>11520885.81667724</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4065,15 +3977,11 @@
         <v>11885488.15768633</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4102,15 +4010,11 @@
         <v>11893474.06818633</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4139,15 +4043,11 @@
         <v>12278301.37678633</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4176,15 +4076,11 @@
         <v>12368401.89168633</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4213,15 +4109,11 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4250,15 +4142,11 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4287,15 +4175,11 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4324,15 +4208,11 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4361,15 +4241,11 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4398,15 +4274,11 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4435,15 +4307,11 @@
         <v>12726844.50728633</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4344,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4377,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4546,15 +4406,11 @@
         <v>12656231.60098633</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4583,15 +4439,11 @@
         <v>12709111.60098633</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4620,15 +4472,11 @@
         <v>12632165.18928633</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4657,15 +4505,11 @@
         <v>12776598.06428633</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4694,15 +4538,11 @@
         <v>12776598.06428633</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4731,15 +4571,11 @@
         <v>12571344.74108633</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4768,15 +4604,11 @@
         <v>11952040.90886096</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4805,15 +4637,11 @@
         <v>11952040.90886096</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4842,15 +4670,11 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4879,15 +4703,11 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4916,15 +4736,11 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4953,15 +4769,11 @@
         <v>12834205.08306096</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4990,15 +4802,11 @@
         <v>13003898.45416096</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5027,15 +4835,11 @@
         <v>12902187.27196096</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5064,15 +4868,11 @@
         <v>12900396.87966096</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5101,15 +4901,11 @@
         <v>12900396.87966096</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5138,15 +4934,11 @@
         <v>14554721.18706096</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5175,15 +4967,11 @@
         <v>12557441.00213558</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5212,15 +5000,11 @@
         <v>11412890.07113558</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5249,15 +5033,11 @@
         <v>11716839.16693558</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5286,15 +5066,11 @@
         <v>11378168.16143558</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5323,15 +5099,11 @@
         <v>11797188.58756394</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5360,15 +5132,11 @@
         <v>11563244.54796394</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5397,15 +5165,11 @@
         <v>11563244.54796394</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5434,15 +5198,11 @@
         <v>11565198.54796394</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5471,15 +5231,11 @@
         <v>11515188.54796394</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5508,15 +5264,11 @@
         <v>11528675.61556394</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5545,15 +5297,11 @@
         <v>11528664.64306394</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5582,15 +5330,11 @@
         <v>11528675.54526394</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5619,15 +5363,11 @@
         <v>11528675.54526394</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5400,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +5433,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +5466,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +5499,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5808,11 +5532,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5845,11 +5565,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5598,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5919,11 +5631,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5952,15 +5660,11 @@
         <v>13206613.19115529</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5993,11 +5697,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6026,15 +5726,11 @@
         <v>13185307.73785529</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6067,11 +5763,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +5796,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6141,11 +5829,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +5862,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +5895,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6252,11 +5928,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6289,11 +5961,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6326,11 +5994,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +6027,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6400,11 +6060,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6437,11 +6093,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6470,15 +6122,11 @@
         <v>13056670.77995529</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6511,11 +6159,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +6192,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6585,11 +6225,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6258,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6659,11 +6291,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6696,11 +6324,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6733,11 +6357,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6770,11 +6390,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6807,11 +6423,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6456,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6881,11 +6489,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6522,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6955,11 +6555,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6992,11 +6588,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7029,11 +6621,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +6654,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7103,11 +6687,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7140,11 +6720,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +6753,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +6786,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7247,15 +6815,11 @@
         <v>12872168.3980732</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7284,15 +6848,11 @@
         <v>12872168.3980732</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +6885,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7362,11 +6918,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7395,15 +6947,11 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +6984,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7473,11 +7017,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7506,15 +7046,11 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7543,15 +7079,11 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +7116,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7621,11 +7149,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7658,11 +7182,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7695,11 +7215,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7732,11 +7248,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +7281,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +7314,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7347,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7880,11 +7380,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7917,11 +7413,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +7446,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +7479,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +7512,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7545,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +7578,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +7611,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +7644,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8213,11 +7677,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +7710,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8287,11 +7743,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8324,11 +7776,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8361,11 +7809,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +7842,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8435,11 +7875,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8472,11 +7908,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +7941,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8546,11 +7974,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8583,11 +8007,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8620,11 +8040,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8657,11 +8073,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8690,16 +8102,14 @@
         <v>15319359.57349898</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -8725,7 +8135,7 @@
         <v>15319359.57349898</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8758,7 +8168,7 @@
         <v>15319359.57349898</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8791,7 +8201,7 @@
         <v>16126066.59869898</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8824,7 +8234,7 @@
         <v>16126066.59869898</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8857,7 +8267,7 @@
         <v>15592427.82059898</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8890,7 +8300,7 @@
         <v>14160187.71080701</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8923,7 +8333,7 @@
         <v>13941739.91230701</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8956,7 +8366,7 @@
         <v>15085357.17420701</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8989,7 +8399,7 @@
         <v>15085357.17420701</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9022,7 +8432,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9055,7 +8465,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9088,7 +8498,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9121,7 +8531,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9154,7 +8564,7 @@
         <v>14879722.59990701</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9187,7 +8597,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9220,7 +8630,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9253,7 +8663,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9286,7 +8696,7 @@
         <v>15126635.26470701</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9319,7 +8729,7 @@
         <v>14748961.98160701</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9352,7 +8762,7 @@
         <v>14748961.98160701</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9385,7 +8795,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9418,7 +8828,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9451,7 +8861,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9484,7 +8894,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9517,7 +8927,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9550,7 +8960,7 @@
         <v>14785916.90260701</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9583,7 +8993,7 @@
         <v>14785916.90260701</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9616,7 +9026,7 @@
         <v>15211389.69810702</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9649,7 +9059,7 @@
         <v>15211389.69810702</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9682,7 +9092,7 @@
         <v>15211367.69810702</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9715,7 +9125,7 @@
         <v>15211367.69810702</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9847,7 +9257,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9979,7 +9389,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10012,7 +9422,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10045,7 +9455,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10078,7 +9488,7 @@
         <v>15092156.76700702</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10111,7 +9521,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10144,7 +9554,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10177,7 +9587,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10210,7 +9620,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10243,7 +9653,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10276,7 +9686,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10309,7 +9719,7 @@
         <v>15046806.00930702</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10342,7 +9752,7 @@
         <v>15101990.10090702</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10375,7 +9785,7 @@
         <v>15101990.10090702</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10408,7 +9818,7 @@
         <v>15052426.60000702</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10441,7 +9851,7 @@
         <v>15022653.10400702</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10474,7 +9884,7 @@
         <v>15175735.94120702</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10507,7 +9917,7 @@
         <v>15101395.27470702</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10540,7 +9950,7 @@
         <v>15088215.73260702</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10573,7 +9983,7 @@
         <v>15171030.25110702</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10606,7 +10016,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10639,7 +10049,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10672,7 +10082,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10705,7 +10115,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10738,7 +10148,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10771,7 +10181,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10804,7 +10214,7 @@
         <v>14746228.62550702</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10837,7 +10247,7 @@
         <v>14676324.94470702</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10870,7 +10280,7 @@
         <v>14630944.76239724</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10903,7 +10313,7 @@
         <v>13584623.18669724</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10936,7 +10346,7 @@
         <v>14485449.59459724</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10969,7 +10379,7 @@
         <v>14031287.25109724</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11002,7 +10412,7 @@
         <v>14910625.90459724</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11035,7 +10445,7 @@
         <v>15213246.77779724</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11068,7 +10478,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11101,7 +10511,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11134,7 +10544,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11167,7 +10577,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11200,7 +10610,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11233,7 +10643,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11266,7 +10676,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11299,7 +10709,7 @@
         <v>14516570.57569724</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11332,7 +10742,7 @@
         <v>14624248.55732452</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11365,7 +10775,7 @@
         <v>14624248.55732452</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11398,7 +10808,7 @@
         <v>14514744.66822452</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11464,7 +10874,7 @@
         <v>14709992.35212452</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11530,7 +10940,7 @@
         <v>14553865.14322452</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11596,7 +11006,7 @@
         <v>14641947.79412452</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12487,7 +11897,7 @@
         <v>12380024.64798747</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12520,7 +11930,7 @@
         <v>12316992.42408747</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12553,7 +11963,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12586,7 +11996,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12619,7 +12029,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12652,7 +12062,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12685,7 +12095,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12718,7 +12128,7 @@
         <v>12057923.06158747</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12751,7 +12161,7 @@
         <v>12057923.06158747</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12784,7 +12194,7 @@
         <v>7975084.873387467</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12817,7 +12227,7 @@
         <v>7975084.873387467</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12850,7 +12260,7 @@
         <v>7857563.542687467</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12883,7 +12293,7 @@
         <v>7857563.542687467</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12982,7 +12392,7 @@
         <v>8352665.468587467</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13015,7 +12425,7 @@
         <v>8263839.433587467</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13048,7 +12458,7 @@
         <v>8199080.703287467</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13081,7 +12491,7 @@
         <v>8199080.703287467</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13114,7 +12524,7 @@
         <v>8089227.766887467</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13147,7 +12557,7 @@
         <v>6667017.584760195</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13180,7 +12590,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13213,7 +12623,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13246,7 +12656,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13279,7 +12689,7 @@
         <v>7067133.115232921</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13345,7 +12755,7 @@
         <v>7139932.942432921</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13411,7 +12821,7 @@
         <v>6974122.136232922</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13477,7 +12887,7 @@
         <v>4246792.968932922</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -17998,14 +17408,10 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J505" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
@@ -18035,19 +17441,11 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J506" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18076,19 +17474,11 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J507" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18150,10 +17540,14 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J509" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
@@ -18186,8 +17580,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18219,8 +17619,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18909,14 +18315,10 @@
         <v>-1666089.637467079</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J532" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
@@ -18949,14 +18351,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18988,14 +18384,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19027,14 +18417,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19066,14 +18450,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19105,14 +18483,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19144,14 +18516,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19183,14 +18549,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19222,14 +18582,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19261,14 +18615,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19300,14 +18648,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19339,14 +18681,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19378,14 +18714,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19417,14 +18747,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19456,14 +18780,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19495,14 +18813,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19534,14 +18846,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19573,14 +18879,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19612,14 +18912,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19651,14 +18945,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19690,14 +18978,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19729,14 +19011,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19768,14 +19044,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19807,14 +19077,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19846,14 +19110,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19885,14 +19143,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19924,14 +19176,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19963,14 +19209,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20002,14 +19242,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20041,14 +19275,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20080,14 +19308,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20119,14 +19341,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20158,14 +19374,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20197,14 +19407,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20236,14 +19440,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20275,14 +19473,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20314,14 +19506,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20353,14 +19539,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20392,14 +19572,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20431,14 +19605,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20470,14 +19638,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20509,14 +19671,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20548,14 +19704,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20587,14 +19737,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20626,14 +19770,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20665,14 +19803,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20704,14 +19836,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20743,14 +19869,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20782,14 +19902,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20821,14 +19935,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20860,14 +19968,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20899,14 +20001,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20938,14 +20034,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20977,14 +20067,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21016,14 +20100,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21055,14 +20133,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21094,14 +20166,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21133,14 +20199,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21172,14 +20232,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21211,14 +20265,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21250,14 +20298,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21289,14 +20331,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21328,14 +20364,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21367,14 +20397,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21406,14 +20430,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21445,14 +20463,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21484,14 +20496,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21523,14 +20529,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21562,14 +20562,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21601,14 +20595,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21640,14 +20628,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21679,14 +20661,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21718,14 +20694,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21757,14 +20727,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21796,14 +20760,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21835,14 +20793,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21871,15 +20823,15 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>12.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -21910,12 +20862,12 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>12.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21949,12 +20901,12 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>12.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21991,9 +20943,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22030,9 +20980,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22069,9 +21017,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22108,9 +21054,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22147,9 +21091,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22186,9 +21128,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,9 +21165,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22264,9 +21202,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22303,9 +21239,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22342,9 +21276,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22381,9 +21313,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22420,9 +21350,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22459,9 +21387,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22498,9 +21424,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22537,9 +21461,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22576,9 +21498,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22615,9 +21535,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22654,9 +21572,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22693,9 +21609,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22732,9 +21646,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22771,9 +21683,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22810,9 +21720,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22849,9 +21757,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22888,9 +21794,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22927,9 +21831,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22966,9 +21868,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,9 +21905,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23044,9 +21942,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23083,9 +21979,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23122,9 +22016,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23161,9 +22053,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23200,9 +22090,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23239,9 +22127,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23278,9 +22164,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23317,9 +22201,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23356,9 +22238,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23395,9 +22275,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23434,9 +22312,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23473,9 +22349,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23512,9 +22386,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23551,9 +22423,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23590,9 +22460,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23629,9 +22497,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23668,9 +22534,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23707,9 +22571,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23746,9 +22608,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23785,9 +22645,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23824,9 +22682,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23863,9 +22719,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23902,9 +22756,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23941,9 +22793,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,9 +22830,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24019,9 +22867,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24058,9 +22904,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24097,9 +22941,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24136,9 +22978,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24175,9 +23015,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24214,9 +23052,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24253,9 +23089,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24292,9 +23126,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24331,9 +23163,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24370,9 +23200,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24409,9 +23237,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24448,9 +23274,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24487,9 +23311,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24526,9 +23348,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24565,9 +23385,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24604,9 +23422,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24643,9 +23459,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24682,9 +23496,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24721,9 +23533,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24760,9 +23570,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24799,9 +23607,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24838,9 +23644,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24877,9 +23681,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24916,9 +23718,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,9 +23755,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24994,9 +23792,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25033,9 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25072,9 +23866,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25111,9 +23903,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25150,9 +23940,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25189,9 +23977,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25228,9 +24014,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25267,9 +24051,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25306,9 +24088,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25345,9 +24125,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25384,9 +24162,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25423,9 +24199,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25462,9 +24236,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25501,9 +24273,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25540,9 +24310,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25579,9 +24347,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25618,9 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25657,9 +24421,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25696,9 +24458,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25735,9 +24495,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25774,9 +24532,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25813,9 +24569,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25852,9 +24606,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,9 +24643,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25930,9 +24680,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25969,9 +24717,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26008,9 +24754,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26047,9 +24791,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26086,9 +24828,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26125,9 +24865,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26164,9 +24902,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26203,9 +24939,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26242,9 +24976,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26281,9 +25013,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26320,9 +25050,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26359,9 +25087,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26398,9 +25124,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26437,9 +25161,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26476,9 +25198,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26515,9 +25235,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26554,9 +25272,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26593,9 +25309,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,9 +25346,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26671,9 +25383,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26710,9 +25420,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26749,9 +25457,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26788,9 +25494,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26827,9 +25531,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26866,9 +25568,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26905,9 +25605,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26944,9 +25642,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26983,9 +25679,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27022,9 +25716,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27061,9 +25753,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27100,9 +25790,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27139,9 +25827,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27178,9 +25864,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27217,9 +25901,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27256,9 +25938,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27295,9 +25975,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27334,9 +26012,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27373,9 +26049,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27412,9 +26086,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27451,9 +26123,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27490,9 +26160,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27529,9 +26197,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27568,9 +26234,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27607,9 +26271,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27646,9 +26308,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27685,9 +26345,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27724,9 +26382,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27763,9 +26419,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27802,9 +26456,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27841,9 +26493,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27880,9 +26530,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27919,9 +26567,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27958,9 +26604,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27997,9 +26641,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28036,9 +26678,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28075,9 +26715,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28114,9 +26752,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28153,9 +26789,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28192,9 +26826,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28231,9 +26863,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28270,9 +26900,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28309,9 +26937,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28348,9 +26974,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28387,9 +27011,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28426,9 +27048,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28465,9 +27085,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28504,9 +27122,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28543,9 +27159,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28582,9 +27196,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28621,9 +27233,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28660,9 +27270,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28699,9 +27307,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28738,9 +27344,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28777,9 +27381,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28816,9 +27418,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28855,9 +27455,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28894,9 +27492,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28933,9 +27529,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28972,9 +27566,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29011,9 +27603,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29050,9 +27640,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29089,9 +27677,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29128,9 +27714,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29167,9 +27751,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29206,9 +27788,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29245,9 +27825,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29284,9 +27862,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29323,9 +27899,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29362,9 +27936,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29401,9 +27973,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29440,9 +28010,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29479,9 +28047,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29518,9 +28084,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29557,9 +28121,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29596,9 +28158,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29635,9 +28195,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29674,9 +28232,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29713,9 +28269,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29752,9 +28306,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29791,9 +28343,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29830,9 +28380,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29869,9 +28417,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29908,9 +28454,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29947,9 +28491,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29986,9 +28528,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30025,9 +28565,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30064,9 +28602,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30103,9 +28639,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30142,9 +28676,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30181,9 +28713,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30220,9 +28750,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30259,9 +28787,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30298,9 +28824,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30337,9 +28861,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30376,9 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30415,9 +28935,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30454,9 +28972,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30493,9 +29009,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30532,9 +29046,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30571,9 +29083,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30610,9 +29120,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30649,9 +29157,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30688,9 +29194,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30727,9 +29231,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30766,9 +29268,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30805,9 +29305,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30844,9 +29342,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30883,9 +29379,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30922,9 +29416,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30961,9 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31000,9 +29490,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31039,9 +29527,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31078,9 +29564,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31117,9 +29601,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31156,9 +29638,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31195,9 +29675,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31234,9 +29712,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31273,9 +29749,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31312,9 +29786,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31351,9 +29823,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31390,9 +29860,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31429,9 +29897,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31468,9 +29934,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31507,9 +29971,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31546,9 +30008,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31585,9 +30045,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31624,9 +30082,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31663,9 +30119,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31702,9 +30156,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31741,9 +30193,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31780,9 +30230,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31819,9 +30267,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31858,9 +30304,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31897,9 +30341,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31936,9 +30378,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31975,9 +30415,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32014,9 +30452,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32053,9 +30489,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32092,9 +30526,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32131,9 +30563,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32170,9 +30600,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32209,9 +30637,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32248,9 +30674,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32287,9 +30711,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32326,9 +30748,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32365,9 +30785,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32404,9 +30822,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32443,9 +30859,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32482,9 +30896,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32521,9 +30933,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32560,9 +30970,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32599,9 +31007,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32638,9 +31044,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32677,9 +31081,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32716,9 +31118,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32755,9 +31155,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32794,9 +31192,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32833,9 +31229,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32872,9 +31266,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32911,9 +31303,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32950,9 +31340,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32989,9 +31377,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33028,9 +31414,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33067,9 +31451,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33106,9 +31488,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33145,9 +31525,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33184,9 +31562,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33223,9 +31599,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33262,9 +31636,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33301,9 +31673,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33340,9 +31710,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33379,9 +31747,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33418,9 +31784,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33457,9 +31821,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33496,9 +31858,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33535,9 +31895,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33574,9 +31932,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33613,9 +31969,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33652,9 +32006,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33691,9 +32043,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33730,9 +32080,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33769,9 +32117,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33808,9 +32154,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33847,9 +32191,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33886,9 +32228,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33925,9 +32265,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33964,9 +32302,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34003,9 +32339,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34042,9 +32376,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34081,9 +32413,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34120,9 +32450,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34159,9 +32487,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34198,9 +32524,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34237,9 +32561,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34276,9 +32598,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34315,9 +32635,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34354,9 +32672,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34393,9 +32709,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34432,9 +32746,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34471,9 +32783,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34510,9 +32820,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34549,9 +32857,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34588,9 +32894,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34627,9 +32931,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34666,9 +32968,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34705,9 +33005,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34744,9 +33042,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34783,9 +33079,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34822,9 +33116,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34861,9 +33153,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34900,9 +33190,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34939,9 +33227,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34978,9 +33264,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35017,9 +33301,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35056,9 +33338,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35095,9 +33375,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35134,9 +33412,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35173,9 +33449,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35212,9 +33486,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35251,9 +33523,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35290,9 +33560,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35329,9 +33597,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35368,9 +33634,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35407,9 +33671,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35446,9 +33708,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35485,9 +33745,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35524,9 +33782,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35563,9 +33819,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35602,9 +33856,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35641,9 +33893,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35680,9 +33930,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35719,9 +33967,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35758,9 +34004,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35797,9 +34041,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35836,9 +34078,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35875,9 +34115,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35914,9 +34152,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35953,9 +34189,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35992,9 +34226,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36031,9 +34263,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36070,9 +34300,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36109,9 +34337,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36148,9 +34374,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36187,9 +34411,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36226,9 +34448,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36265,9 +34485,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36304,9 +34522,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36343,9 +34559,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36382,9 +34596,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36421,9 +34633,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36460,9 +34670,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36499,9 +34707,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36538,9 +34744,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36577,9 +34781,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36616,9 +34818,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36655,9 +34855,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36694,9 +34892,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36733,9 +34929,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36772,9 +34966,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36811,9 +35003,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36850,9 +35040,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36889,9 +35077,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36928,9 +35114,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36967,9 +35151,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37006,9 +35188,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37045,9 +35225,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37084,9 +35262,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37123,9 +35299,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37162,9 +35336,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37201,9 +35373,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37240,9 +35410,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37279,9 +35447,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37318,9 +35484,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37357,9 +35521,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37396,9 +35558,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37435,9 +35595,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37474,9 +35632,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37513,9 +35669,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37552,9 +35706,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37591,9 +35743,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37630,9 +35780,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37669,9 +35817,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37708,9 +35854,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37747,9 +35891,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37786,9 +35928,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37825,9 +35965,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37864,9 +36002,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37903,9 +36039,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37942,9 +36076,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37981,9 +36113,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38020,9 +36150,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38059,9 +36187,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38098,9 +36224,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38137,9 +36261,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38176,9 +36298,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38215,9 +36335,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38254,9 +36372,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38293,9 +36409,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38332,9 +36446,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38371,9 +36483,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38410,9 +36520,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38449,9 +36557,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38488,9 +36594,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38527,9 +36631,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38566,9 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38605,9 +36705,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38619,6 +36717,6 @@
       <c r="M1037" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest FNB.xlsx
+++ b/BackTest/2019-10-25 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-593127.5047555559</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-838890.8251555559</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-804518.9505555559</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,7 +789,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -913,11 +859,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +896,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +933,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +970,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1007,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1044,9 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1081,9 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1118,9 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,11 +1155,9 @@
         <v>-1051991.737455556</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1264,11 +1192,9 @@
         <v>-957854.349755556</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1340,11 +1266,9 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1379,11 +1303,9 @@
         <v>-957843.349755556</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1418,11 +1340,9 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1457,11 +1377,9 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1496,11 +1414,9 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1535,11 +1451,9 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1574,11 +1488,9 @@
         <v>-1082527.556155556</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1613,11 +1525,9 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1652,11 +1562,9 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1691,11 +1599,9 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1730,11 +1636,9 @@
         <v>-545391.332355556</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1769,11 +1673,9 @@
         <v>-555391.332355556</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1808,11 +1710,9 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2217,18 +2117,16 @@
         <v>6528495.471644443</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2254,15 +2152,11 @@
         <v>6281286.945344443</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2291,15 +2185,11 @@
         <v>7636487.845907947</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2328,15 +2218,11 @@
         <v>6494432.639515193</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2365,15 +2251,11 @@
         <v>8812323.350215193</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2406,11 +2288,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2321,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2354,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2387,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2554,11 +2420,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2453,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2628,11 +2486,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2519,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2702,11 +2552,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2739,11 +2585,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2776,11 +2618,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2813,11 +2651,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2850,11 +2684,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +2717,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2750,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +2783,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2998,11 +2816,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +2849,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3072,11 +2882,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +2915,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3146,11 +2948,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3183,11 +2981,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3216,16 +3010,14 @@
         <v>16184600.50847724</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3548,7 +3340,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3581,7 +3373,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3614,7 +3406,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3647,7 +3439,7 @@
         <v>14400790.28277724</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3680,7 +3472,7 @@
         <v>14028799.27927724</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3713,7 +3505,7 @@
         <v>14207739.75057724</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3746,7 +3538,7 @@
         <v>14142551.16857724</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3779,7 +3571,7 @@
         <v>14142551.16857724</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3812,7 +3604,7 @@
         <v>12821224.64117724</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3845,7 +3637,7 @@
         <v>12821244.64117724</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3878,7 +3670,7 @@
         <v>12471211.16637724</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3911,7 +3703,7 @@
         <v>12469798.90067724</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3944,7 +3736,7 @@
         <v>11520885.81667724</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3977,7 +3769,7 @@
         <v>11885488.15768633</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4010,7 +3802,7 @@
         <v>11893474.06818633</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4043,7 +3835,7 @@
         <v>12278301.37678633</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4076,7 +3868,7 @@
         <v>12368401.89168633</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4109,7 +3901,7 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4142,7 +3934,7 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4175,7 +3967,7 @@
         <v>12102867.37468633</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4208,7 +4000,7 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4241,7 +4033,7 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4274,7 +4066,7 @@
         <v>12232459.91328633</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4307,7 +4099,7 @@
         <v>12726844.50728633</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4406,7 +4198,7 @@
         <v>12656231.60098633</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4439,7 +4231,7 @@
         <v>12709111.60098633</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4472,7 +4264,7 @@
         <v>12632165.18928633</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4505,7 +4297,7 @@
         <v>12776598.06428633</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4538,7 +4330,7 @@
         <v>12776598.06428633</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4571,7 +4363,7 @@
         <v>12571344.74108633</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4604,7 +4396,7 @@
         <v>11952040.90886096</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4637,7 +4429,7 @@
         <v>11952040.90886096</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4670,7 +4462,7 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4703,7 +4495,7 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4736,7 +4528,7 @@
         <v>12840940.61246096</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4769,7 +4561,7 @@
         <v>12834205.08306096</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4802,7 +4594,7 @@
         <v>13003898.45416096</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4835,7 +4627,7 @@
         <v>12902187.27196096</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4868,7 +4660,7 @@
         <v>12900396.87966096</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4901,7 +4693,7 @@
         <v>12900396.87966096</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4934,7 +4726,7 @@
         <v>14554721.18706096</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4967,7 +4759,7 @@
         <v>12557441.00213558</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5000,7 +4792,7 @@
         <v>11412890.07113558</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5033,7 +4825,7 @@
         <v>11716839.16693558</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5066,7 +4858,7 @@
         <v>11378168.16143558</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5099,7 +4891,7 @@
         <v>11797188.58756394</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5132,7 +4924,7 @@
         <v>11563244.54796394</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5165,7 +4957,7 @@
         <v>11563244.54796394</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5198,7 +4990,7 @@
         <v>11565198.54796394</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5231,7 +5023,7 @@
         <v>11515188.54796394</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5264,7 +5056,7 @@
         <v>11528675.61556394</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5297,7 +5089,7 @@
         <v>11528664.64306394</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5330,7 +5122,7 @@
         <v>11528675.54526394</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5363,7 +5155,7 @@
         <v>11528675.54526394</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5660,7 +5452,7 @@
         <v>13206613.19115529</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5726,7 +5518,7 @@
         <v>13185307.73785529</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6122,7 +5914,7 @@
         <v>13056670.77995529</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6815,7 +6607,7 @@
         <v>12872168.3980732</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6848,7 +6640,7 @@
         <v>12872168.3980732</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6947,7 +6739,7 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7046,7 +6838,7 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7079,7 +6871,7 @@
         <v>12909277.6975732</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8168,7 +7960,7 @@
         <v>15319359.57349898</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8234,7 +8026,7 @@
         <v>16126066.59869898</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8267,7 +8059,7 @@
         <v>15592427.82059898</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8333,7 +8125,7 @@
         <v>13941739.91230701</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8366,7 +8158,7 @@
         <v>15085357.17420701</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8399,7 +8191,7 @@
         <v>15085357.17420701</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8432,7 +8224,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8465,7 +8257,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8498,7 +8290,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8531,7 +8323,7 @@
         <v>14958263.98300701</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8564,7 +8356,7 @@
         <v>14879722.59990701</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8597,7 +8389,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8630,7 +8422,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8663,7 +8455,7 @@
         <v>15118070.20590701</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8696,7 +8488,7 @@
         <v>15126635.26470701</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8729,7 +8521,7 @@
         <v>14748961.98160701</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8762,7 +8554,7 @@
         <v>14748961.98160701</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8795,7 +8587,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8828,7 +8620,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8861,7 +8653,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8894,7 +8686,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8927,7 +8719,7 @@
         <v>14785951.90260701</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8960,7 +8752,7 @@
         <v>14785916.90260701</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8993,7 +8785,7 @@
         <v>14785916.90260701</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9026,7 +8818,7 @@
         <v>15211389.69810702</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9059,7 +8851,7 @@
         <v>15211389.69810702</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9092,7 +8884,7 @@
         <v>15211367.69810702</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9125,7 +8917,7 @@
         <v>15211367.69810702</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9257,7 +9049,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9389,7 +9181,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9422,7 +9214,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9455,7 +9247,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9488,7 +9280,7 @@
         <v>15092156.76700702</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9521,7 +9313,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9554,7 +9346,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9587,7 +9379,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9620,7 +9412,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9653,7 +9445,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9686,7 +9478,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9719,7 +9511,7 @@
         <v>15046806.00930702</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9752,7 +9544,7 @@
         <v>15101990.10090702</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9785,7 +9577,7 @@
         <v>15101990.10090702</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9818,7 +9610,7 @@
         <v>15052426.60000702</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9851,7 +9643,7 @@
         <v>15022653.10400702</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9884,7 +9676,7 @@
         <v>15175735.94120702</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9917,7 +9709,7 @@
         <v>15101395.27470702</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9950,7 +9742,7 @@
         <v>15088215.73260702</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9983,7 +9775,7 @@
         <v>15171030.25110702</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10016,7 +9808,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10049,7 +9841,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10082,7 +9874,7 @@
         <v>14912869.74610702</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10115,7 +9907,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10148,7 +9940,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10181,7 +9973,7 @@
         <v>14746208.62550702</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10214,7 +10006,7 @@
         <v>14746228.62550702</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10247,7 +10039,7 @@
         <v>14676324.94470702</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10280,7 +10072,7 @@
         <v>14630944.76239724</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10313,7 +10105,7 @@
         <v>13584623.18669724</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10346,7 +10138,7 @@
         <v>14485449.59459724</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10379,7 +10171,7 @@
         <v>14031287.25109724</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10412,7 +10204,7 @@
         <v>14910625.90459724</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10445,7 +10237,7 @@
         <v>15213246.77779724</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10478,7 +10270,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10511,7 +10303,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10544,7 +10336,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10577,7 +10369,7 @@
         <v>15014320.16379724</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10610,7 +10402,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10643,7 +10435,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10676,7 +10468,7 @@
         <v>15027109.25469724</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10709,7 +10501,7 @@
         <v>14516570.57569724</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10742,7 +10534,7 @@
         <v>14624248.55732452</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10775,7 +10567,7 @@
         <v>14624248.55732452</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10808,7 +10600,7 @@
         <v>14514744.66822452</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10874,7 +10666,7 @@
         <v>14709992.35212452</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10940,7 +10732,7 @@
         <v>14553865.14322452</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11006,7 +10798,7 @@
         <v>14641947.79412452</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11897,7 +11689,7 @@
         <v>12380024.64798747</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11930,7 +11722,7 @@
         <v>12316992.42408747</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11963,7 +11755,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11996,7 +11788,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12029,7 +11821,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12062,7 +11854,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12095,7 +11887,7 @@
         <v>12594378.59078747</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12128,7 +11920,7 @@
         <v>12057923.06158747</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12161,7 +11953,7 @@
         <v>12057923.06158747</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12194,7 +11986,7 @@
         <v>7975084.873387467</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12227,7 +12019,7 @@
         <v>7975084.873387467</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12260,7 +12052,7 @@
         <v>7857563.542687467</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12293,7 +12085,7 @@
         <v>7857563.542687467</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12392,7 +12184,7 @@
         <v>8352665.468587467</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12425,7 +12217,7 @@
         <v>8263839.433587467</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12458,7 +12250,7 @@
         <v>8199080.703287467</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12491,7 +12283,7 @@
         <v>8199080.703287467</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12524,7 +12316,7 @@
         <v>8089227.766887467</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12557,7 +12349,7 @@
         <v>6667017.584760195</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12590,7 +12382,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12623,7 +12415,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12656,7 +12448,7 @@
         <v>6954539.788932921</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12689,7 +12481,7 @@
         <v>7067133.115232921</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12755,7 +12547,7 @@
         <v>7139932.942432921</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12821,7 +12613,7 @@
         <v>6974122.136232922</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12887,7 +12679,7 @@
         <v>4246792.968932922</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -17441,10 +17233,14 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J506" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
@@ -17474,11 +17270,19 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J507" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17507,11 +17311,19 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J508" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17577,9 +17389,11 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J510" t="n">
         <v>12.6</v>
       </c>
@@ -20940,9 +20754,11 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -20977,9 +20793,11 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21014,9 +20832,11 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21051,9 +20871,11 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21088,9 +20910,11 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21125,9 +20949,11 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21199,9 +21025,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21236,9 +21064,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21347,9 +21177,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -36717,6 +36549,6 @@
       <c r="M1037" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest FNB.xlsx
+++ b/BackTest/2019-10-25 BackTest FNB.xlsx
@@ -583,11 +583,17 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +665,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +698,17 @@
         <v>-804518.9505555559</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +737,17 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +776,17 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -789,7 +823,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -859,9 +893,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -896,9 +932,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -933,9 +971,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -970,9 +1010,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1007,9 +1049,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1044,9 +1088,11 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1081,9 +1127,11 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1118,9 +1166,11 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1155,9 +1205,11 @@
         <v>-1051991.737455556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1192,9 +1244,11 @@
         <v>-957854.349755556</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1229,9 +1283,11 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1266,9 +1322,11 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1303,9 +1361,11 @@
         <v>-957843.349755556</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1340,9 +1400,11 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1377,9 +1439,11 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1414,9 +1478,11 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1451,9 +1517,11 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1488,9 +1556,11 @@
         <v>-1082527.556155556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1525,9 +1595,11 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1562,9 +1634,11 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1599,9 +1673,11 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1636,9 +1712,11 @@
         <v>-545391.332355556</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1673,9 +1751,11 @@
         <v>-555391.332355556</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1710,9 +1790,11 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1747,9 +1829,11 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2117,16 +2201,18 @@
         <v>6528495.471644443</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2152,11 +2238,15 @@
         <v>6281286.945344443</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2275,15 @@
         <v>7636487.845907947</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2218,11 +2312,15 @@
         <v>6494432.639515193</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2251,11 +2349,15 @@
         <v>8812323.350215193</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2390,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2321,7 +2427,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2354,7 +2464,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2501,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2420,7 +2538,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2575,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2486,7 +2612,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2649,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2552,7 +2686,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2723,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2618,7 +2760,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2797,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2834,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2717,7 +2871,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2908,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2941,16 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2812,7 +2976,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2845,7 +3009,7 @@
         <v>14960441.73107724</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2878,7 +3042,7 @@
         <v>13667798.83317724</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2911,7 +3075,7 @@
         <v>15356531.07847724</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3142,7 +3306,7 @@
         <v>15461062.07567724</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3175,7 +3339,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3208,7 +3372,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3241,7 +3405,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3274,7 +3438,7 @@
         <v>14720724.17097724</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3307,7 +3471,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -17233,14 +17397,10 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J506" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
@@ -17270,19 +17430,11 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J507" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17311,19 +17463,11 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J508" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17352,14 +17496,10 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J509" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
@@ -17389,19 +17529,11 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J510" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17433,14 +17565,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20637,17 +20763,11 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20676,17 +20796,11 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20715,17 +20829,11 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20754,17 +20862,11 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20793,17 +20895,11 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20832,17 +20928,11 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20871,17 +20961,11 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20910,17 +20994,11 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20949,17 +21027,11 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20992,11 +21064,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21025,17 +21093,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21064,17 +21126,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21107,11 +21163,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21144,11 +21196,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21177,17 +21225,11 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21220,11 +21262,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21257,11 +21295,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21294,11 +21328,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21331,11 +21361,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21368,11 +21394,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21405,11 +21427,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21442,11 +21460,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21479,11 +21493,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21516,11 +21526,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21553,11 +21559,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21590,11 +21592,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21627,11 +21625,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21664,11 +21658,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21701,11 +21691,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21738,11 +21724,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21775,11 +21757,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21812,11 +21790,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21849,11 +21823,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21886,11 +21856,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21923,11 +21889,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21960,11 +21922,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21997,11 +21955,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22034,11 +21988,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22071,11 +22021,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22108,11 +22054,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22145,11 +22087,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22182,11 +22120,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22219,11 +22153,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22256,11 +22186,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22293,11 +22219,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22252,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22367,11 +22285,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22404,11 +22318,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22441,11 +22351,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22478,11 +22384,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22515,11 +22417,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22552,11 +22450,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22589,11 +22483,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22626,11 +22516,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22663,11 +22549,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22700,11 +22582,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22737,11 +22615,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +22648,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22811,11 +22681,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22848,11 +22714,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22885,11 +22747,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22922,11 +22780,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22959,11 +22813,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22996,11 +22846,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23033,11 +22879,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23070,11 +22912,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23107,11 +22945,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23144,11 +22978,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23181,11 +23011,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23218,11 +23044,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23255,11 +23077,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23292,11 +23110,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23329,11 +23143,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23366,11 +23176,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23403,11 +23209,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23440,11 +23242,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23477,11 +23275,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23514,11 +23308,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23341,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23588,11 +23374,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23625,11 +23407,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23662,11 +23440,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23699,11 +23473,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23736,11 +23506,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23773,11 +23539,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23810,11 +23572,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23847,11 +23605,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23884,11 +23638,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23921,11 +23671,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23958,11 +23704,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23995,11 +23737,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24032,11 +23770,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24069,11 +23803,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24106,11 +23836,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24143,11 +23869,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24180,11 +23902,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24217,11 +23935,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24254,11 +23968,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24291,11 +24001,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24328,11 +24034,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24365,11 +24067,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24402,11 +24100,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24439,11 +24133,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24476,11 +24166,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24513,11 +24199,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24550,11 +24232,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24587,11 +24265,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24624,11 +24298,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24661,11 +24331,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24698,11 +24364,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24735,11 +24397,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24430,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24809,11 +24463,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24846,11 +24496,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24883,11 +24529,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24920,11 +24562,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24957,11 +24595,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24994,11 +24628,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25031,11 +24661,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25068,11 +24694,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25105,11 +24727,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25142,11 +24760,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25179,11 +24793,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25216,11 +24826,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25253,11 +24859,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25290,11 +24892,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25327,11 +24925,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25364,11 +24958,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25401,11 +24991,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25438,11 +25024,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25475,11 +25057,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25512,11 +25090,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25549,11 +25123,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25586,11 +25156,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25623,11 +25189,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25660,11 +25222,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25697,11 +25255,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25734,11 +25288,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25771,11 +25321,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25808,11 +25354,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25845,11 +25387,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25882,11 +25420,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25919,11 +25453,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25956,11 +25486,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25993,11 +25519,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26030,11 +25552,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26067,11 +25585,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26104,11 +25618,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26141,11 +25651,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26178,11 +25684,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26215,11 +25717,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26252,11 +25750,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26289,11 +25783,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26326,11 +25816,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26363,11 +25849,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26400,11 +25882,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26437,11 +25915,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26474,11 +25948,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26511,11 +25981,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26548,11 +26014,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26585,11 +26047,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26622,11 +26080,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26659,11 +26113,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26696,11 +26146,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26733,11 +26179,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26770,11 +26212,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26807,11 +26245,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26844,11 +26278,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26881,11 +26311,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26918,11 +26344,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26955,11 +26377,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26992,11 +26410,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27029,11 +26443,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27066,11 +26476,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27103,11 +26509,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27140,11 +26542,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27177,11 +26575,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27214,11 +26608,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27251,11 +26641,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27288,11 +26674,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27325,11 +26707,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27362,11 +26740,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27399,11 +26773,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27436,11 +26806,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27473,11 +26839,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27510,11 +26872,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27547,11 +26905,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27584,11 +26938,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27621,11 +26971,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27658,11 +27004,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27695,11 +27037,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27732,11 +27070,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27769,11 +27103,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27806,11 +27136,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27843,11 +27169,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27880,11 +27202,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27917,11 +27235,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27954,11 +27268,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27991,11 +27301,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28028,11 +27334,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28065,11 +27367,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28102,11 +27400,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28139,11 +27433,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28176,11 +27466,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28213,11 +27499,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28250,11 +27532,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28287,11 +27565,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28324,11 +27598,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28361,11 +27631,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28398,11 +27664,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +27697,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28472,11 +27730,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28509,11 +27763,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28546,11 +27796,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28583,11 +27829,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28620,11 +27862,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28657,11 +27895,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28694,11 +27928,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28731,11 +27961,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28768,11 +27994,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28805,11 +28027,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28842,11 +28060,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28879,11 +28093,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28916,11 +28126,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28953,11 +28159,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28990,11 +28192,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29027,11 +28225,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29064,11 +28258,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29101,11 +28291,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29138,11 +28324,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29175,11 +28357,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29212,11 +28390,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29249,11 +28423,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29286,11 +28456,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29323,11 +28489,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29360,11 +28522,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29397,11 +28555,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29434,11 +28588,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29471,11 +28621,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29508,11 +28654,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29545,11 +28687,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29582,11 +28720,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29619,11 +28753,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +28786,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29693,11 +28819,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29730,11 +28852,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29767,11 +28885,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29804,11 +28918,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29841,11 +28951,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29878,11 +28984,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29915,11 +29017,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29952,11 +29050,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29989,11 +29083,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30026,11 +29116,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30063,11 +29149,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30100,11 +29182,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30137,11 +29215,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30174,11 +29248,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30211,11 +29281,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30248,11 +29314,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30285,11 +29347,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30322,11 +29380,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30359,11 +29413,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30396,11 +29446,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30433,11 +29479,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30470,11 +29512,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30507,11 +29545,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30544,11 +29578,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30581,11 +29611,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30618,11 +29644,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30655,11 +29677,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30692,11 +29710,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30729,11 +29743,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30766,11 +29776,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30803,11 +29809,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30840,11 +29842,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +29875,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30914,11 +29908,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30951,11 +29941,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30988,11 +29974,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31025,11 +30007,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31062,11 +30040,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31099,11 +30073,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31136,11 +30106,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31173,11 +30139,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31210,11 +30172,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31247,11 +30205,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31284,11 +30238,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31321,11 +30271,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31358,11 +30304,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31395,11 +30337,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31432,11 +30370,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31469,11 +30403,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31506,11 +30436,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31543,11 +30469,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31580,11 +30502,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31617,11 +30535,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31654,11 +30568,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31691,11 +30601,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31728,11 +30634,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31765,11 +30667,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31802,11 +30700,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31839,11 +30733,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31876,11 +30766,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31913,11 +30799,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31950,11 +30832,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31987,11 +30865,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32024,11 +30898,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32061,11 +30931,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +30964,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32135,11 +30997,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32172,11 +31030,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32209,11 +31063,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32246,11 +31096,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32283,11 +31129,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32320,11 +31162,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32357,11 +31195,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32394,11 +31228,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32431,11 +31261,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32468,11 +31294,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32505,11 +31327,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32542,11 +31360,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32579,11 +31393,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32616,11 +31426,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32653,11 +31459,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32690,11 +31492,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32727,11 +31525,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32764,11 +31558,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32801,11 +31591,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32838,11 +31624,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32875,11 +31657,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32912,11 +31690,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32949,11 +31723,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32986,11 +31756,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33023,11 +31789,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33060,11 +31822,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33097,11 +31855,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33134,11 +31888,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33171,11 +31921,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33208,11 +31954,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33245,11 +31987,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33282,11 +32020,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33319,11 +32053,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33356,11 +32086,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33393,11 +32119,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33430,11 +32152,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33467,11 +32185,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33504,11 +32218,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33541,11 +32251,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33578,11 +32284,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33615,11 +32317,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33652,11 +32350,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33689,11 +32383,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33726,11 +32416,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33763,11 +32449,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33800,11 +32482,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33837,11 +32515,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33874,11 +32548,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33911,11 +32581,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33948,11 +32614,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33985,11 +32647,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34022,11 +32680,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34059,11 +32713,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34096,11 +32746,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34133,11 +32779,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34170,11 +32812,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34207,11 +32845,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34244,11 +32878,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34281,11 +32911,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34318,11 +32944,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34355,11 +32977,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34392,11 +33010,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34429,11 +33043,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34466,11 +33076,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34503,11 +33109,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +33142,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34577,11 +33175,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34614,11 +33208,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34651,11 +33241,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34688,11 +33274,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34725,11 +33307,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34762,11 +33340,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34799,11 +33373,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34836,11 +33406,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34873,11 +33439,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34910,11 +33472,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34947,11 +33505,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34984,11 +33538,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35021,11 +33571,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35058,11 +33604,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35095,11 +33637,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35132,11 +33670,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35169,11 +33703,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35206,11 +33736,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35243,11 +33769,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35280,11 +33802,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35317,11 +33835,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35354,11 +33868,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35391,11 +33901,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35428,11 +33934,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35465,11 +33967,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35502,11 +34000,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35539,11 +34033,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35576,11 +34066,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35613,11 +34099,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35650,11 +34132,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35687,11 +34165,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35724,11 +34198,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35761,11 +34231,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35798,11 +34264,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35835,11 +34297,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35872,11 +34330,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35909,11 +34363,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35946,11 +34396,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35983,11 +34429,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36020,11 +34462,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36057,11 +34495,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -36094,11 +34528,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36131,11 +34561,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36168,11 +34594,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36205,11 +34627,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36242,11 +34660,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36279,11 +34693,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36316,11 +34726,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36353,11 +34759,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36390,11 +34792,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36427,11 +34825,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36464,11 +34858,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36501,11 +34891,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36538,11 +34924,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
